--- a/Data/Listings/sidra.xlsx
+++ b/Data/Listings/sidra.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,9 +30,6 @@
     </font>
     <font>
       <color rgb="00008000"/>
-    </font>
-    <font>
-      <color rgb="00000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -56,12 +53,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFE4B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE4B5"/>
+        <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -76,17 +73,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -644,7 +640,7 @@
           <t>4451</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -660,7 +656,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -760,12 +756,12 @@
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -781,7 +777,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -883,7 +879,7 @@
           <t>3237</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>4720</t>
         </is>
@@ -899,7 +895,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -990,10 +986,10 @@
       </c>
       <c r="M5" s="5" t="inlineStr">
         <is>
-          <t>5495</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1009,7 +1005,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1105,10 +1101,10 @@
       </c>
       <c r="M6" s="5" t="inlineStr">
         <is>
-          <t>3450</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
@@ -1124,7 +1120,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1228,7 +1224,7 @@
           <t>6021</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1244,7 +1240,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1343,7 +1339,7 @@
           <t>4283</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>6262</t>
         </is>
@@ -1359,7 +1355,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1451,12 +1447,12 @@
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1472,7 +1468,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1569,10 +1565,10 @@
       </c>
       <c r="M10" s="5" t="inlineStr">
         <is>
-          <t>4145</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>6091</t>
         </is>
@@ -1588,7 +1584,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1694,7 +1690,7 @@
           <t>3533</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>5202</t>
         </is>
@@ -1710,7 +1706,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1808,10 +1804,10 @@
       </c>
       <c r="M12" s="5" t="inlineStr">
         <is>
-          <t>3953</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>4901</t>
         </is>
@@ -1827,7 +1823,7 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1923,7 +1919,7 @@
           <t>4526</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1939,7 +1935,7 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -2025,12 +2021,12 @@
           <t>Type E4</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>3757</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2046,7 +2042,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -2135,10 +2131,10 @@
       </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
-          <t>3125</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>4596</t>
         </is>
@@ -2154,7 +2150,7 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -2241,12 +2237,12 @@
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>4570</t>
         </is>
@@ -2262,7 +2258,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2353,7 +2349,7 @@
           <t>4283</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>6746</t>
         </is>
@@ -2369,7 +2365,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2453,12 +2449,12 @@
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2474,7 +2470,7 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2555,12 +2551,12 @@
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2576,7 +2572,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2595,7 +2591,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Direct Properties is delighted to offer this amazing opportunity to purchase a luxurious 4 Bedroom villa in the heart of the much sought after Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;This stunning corner, E3 type property boasts a large living space, fitted kitchen and maids room as well as 4 great sized bedrooms with built in wardrobes, immaculate bathrooms and lots of space.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;A large outdoor area affords all the privacy you would ever need with plenty of scope to add in the desired landscaping you want.&lt;br /&gt;&lt;br /&gt;Unit is vacant and ready for immediate possession.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Unique Features&lt;/p&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt; Large corner plot&lt;/li&gt;&lt;li&gt; Desirable location&lt;/li&gt;&lt;li&gt; Great community facilities&lt;/li&gt;&lt;li&gt; Close to mall&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; Direct Properties achievements are the result of 5* Reviews.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Years of dedication &amp;amp; committed people gathered together, it has grown due to Customer re-satisfaction and word of mouth.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Our team aims to stay ahead of the latest market trends &amp;amp; to anticipate the needs of our clients.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;We know that customer satisfaction is the best marketing strategy and our goal is to grow our brand based on loyalty.&lt;/p&gt;&lt;br /&gt;</t>
+          <t>&lt;p&gt;Direct Properties is delighted to offer this amazing opportunity to purchase a luxurious 4 Bedroom villa in the heart of the much sought after Dubai Hills Estate.&lt;/p&gt;&lt;br&gt;&lt;p&gt;This stunning corner, E3 type property boasts a large living space, fitted kitchen and maids room as well as 4 great sized bedrooms with built in wardrobes, immaculate bathrooms and lots of space.&lt;/p&gt;&lt;br&gt;&lt;p&gt;A large outdoor area affords all the privacy you would ever need with plenty of scope to add in the desired landscaping you want.&lt;br/&gt;&lt;br/&gt;Unit is vacant and ready for immediate possession.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Unique Features&lt;/p&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt; Large corner plot&lt;/li&gt;&lt;li&gt; Desirable location&lt;/li&gt;&lt;li&gt; Great community facilities&lt;/li&gt;&lt;li&gt; Close to mall&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; Direct Properties achievements are the result of 5* Reviews.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Years of dedication &amp;amp; committed people gathered together, it has grown due to Customer re-satisfaction and word of mouth.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Our team aims to stay ahead of the latest market trends &amp;amp; to anticipate the needs of our clients.&lt;/p&gt;&lt;br&gt;&lt;p&gt;We know that customer satisfaction is the best marketing strategy and our goal is to grow our brand based on loyalty.&lt;/p&gt;&lt;br&gt;</t>
         </is>
       </c>
     </row>
@@ -2653,10 +2649,10 @@
       </c>
       <c r="M20" s="5" t="inlineStr">
         <is>
-          <t>6029</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -2672,7 +2668,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2777,12 +2773,12 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>6751</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>6751</t>
         </is>
@@ -2798,7 +2794,7 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2893,10 +2889,10 @@
       </c>
       <c r="M22" s="5" t="inlineStr">
         <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>6331</t>
         </is>
@@ -2912,7 +2908,7 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2998,10 +2994,10 @@
       </c>
       <c r="M23" s="5" t="inlineStr">
         <is>
-          <t>4036</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="N23" s="4" t="inlineStr">
         <is>
           <t>5600</t>
         </is>
@@ -3017,7 +3013,7 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -3107,12 +3103,12 @@
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3128,7 +3124,7 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -3214,12 +3210,12 @@
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3235,7 +3231,7 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -3321,10 +3317,10 @@
       </c>
       <c r="M26" s="5" t="inlineStr">
         <is>
-          <t>4650</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3340,7 +3336,7 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -3428,12 +3424,12 @@
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3449,7 +3445,7 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -3554,10 +3550,10 @@
       </c>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>6795</t>
         </is>
@@ -3573,7 +3569,7 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -3675,10 +3671,10 @@
       </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
         <is>
           <t>4467</t>
         </is>
@@ -3694,7 +3690,7 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -3783,10 +3779,10 @@
       </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>3271</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+          <t>3237</t>
+        </is>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
@@ -3802,7 +3798,7 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3892,10 +3888,10 @@
       </c>
       <c r="M31" s="5" t="inlineStr">
         <is>
-          <t>4560</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N31" s="4" t="inlineStr">
         <is>
           <t>6177</t>
         </is>
@@ -3911,7 +3907,7 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -4003,10 +3999,10 @@
       </c>
       <c r="M32" s="5" t="inlineStr">
         <is>
-          <t>3250</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>4435</t>
         </is>
@@ -4022,7 +4018,7 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -4111,10 +4107,10 @@
       </c>
       <c r="M33" s="5" t="inlineStr">
         <is>
-          <t>3350</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
         <is>
           <t>4805</t>
         </is>
@@ -4130,7 +4126,7 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -4220,10 +4216,10 @@
       </c>
       <c r="M34" s="5" t="inlineStr">
         <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N34" s="4" t="inlineStr">
         <is>
           <t>5011</t>
         </is>
@@ -4239,7 +4235,7 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -4330,10 +4326,10 @@
       </c>
       <c r="M35" s="5" t="inlineStr">
         <is>
-          <t>3450</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
@@ -4349,7 +4345,7 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -4433,12 +4429,12 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="M36" s="5" t="inlineStr">
+      <c r="M36" s="3" t="inlineStr">
         <is>
           <t>6090</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4454,7 +4450,7 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -4510,17 +4506,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GW-S-4970</t>
+          <t>HI-S-006524</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>65102648455</t>
+          <t>6531921921</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13366607.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13964256.html</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4535,7 +4531,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sidra Villas III</t>
+          <t>Sidra Villas I</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4544,10 +4540,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>13999999</v>
+        <v>10000000</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -4556,40 +4552,40 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Type E5</t>
+          <t>Type E3</t>
         </is>
       </c>
       <c r="M37" s="5" t="inlineStr">
         <is>
-          <t>4109</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>6636</t>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t>5708</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Exclusive|Corner Plot|Notice Served|Close to Park</t>
+          <t>4-Bedroom, Type E3 | Single Row | Vacant</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Amar Rupaney</t>
+          <t>Fariha Zahid</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Golden Wave Properties</t>
+          <t>Hamptons International - T1</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4599,24 +4595,24 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Golden Wave Properties Proudly Presents this amazing E5, 5-bedroom villa located in the heart of Dubai Hills Estate for Sale&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Spacious 5 bedroom Villa Type E5 for sale in Sidra&lt;/li&gt;&lt;li&gt;Large Corner Plot 6636 sqft in size&lt;/li&gt;&lt;li&gt;BUA 4109.00 SQ FT&lt;/li&gt;&lt;li&gt;Landscaped garden, Well Maintained&lt;/li&gt;&lt;li&gt;Rented for Dhs 560,000/- in ONE PAYMENT till February 2026 and notice has been served for the tenant to vacate at the time of contract expiry itself&lt;/li&gt;&lt;li&gt;Overlooking a green patch with a great location &lt;/li&gt;&lt;li&gt;Huge Balconies&lt;/li&gt;&lt;li&gt;Generous Gardens&lt;/li&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Park &amp;amp; Kid's Play Area&lt;/li&gt;&lt;li&gt;On the Park and Play Area&lt;/li&gt;&lt;li&gt;Large Plot &lt;/li&gt;&lt;li&gt;Golf Course Community&lt;/li&gt;&lt;li&gt;Perfect family living for any prospective Owners looking for a convenient location &lt;/li&gt;&lt;li&gt;Mall within walking distance&lt;/li&gt;&lt;li&gt;Well connected with the Shopping Mall, Restaurants, Education System and Sports.&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;/ul&gt;The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. Everything you could need and want in the best of lifestyle living is within the community. This is where convenience meets you at the comfort of your home.&lt;br /&gt;&lt;br /&gt;For more information and viewing call our expert&lt;br /&gt;&lt;br /&gt;Mr. Amar Rupaney &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;or visit www.gwp.ae for further details.</t>
+          <t>&lt;p&gt;Hamptons International proudly presents this stunning 4-bedroom villa in Sidra 1, Dubai Hills Estate, offering elegant interiors, spacious living areas, a modern kitchen, and a private garden, all within a vibrant, family-friendly community.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Property Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;4 Bedrooms Plus Maids Room&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Fully Landscaped garden&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Single row&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;BUA - 3,523 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Plot - 5708 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Ready to move in&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact Fariha Zahid 00971-565477115 for more details today!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sidra in Dubai Hills is an exclusive, family-friendly community set amidst lush greenery and scenic landscapes. Known for its modern villas and serene surroundings, Sidra offers a peaceful retreat with easy access to world-class amenities. Residents enjoy a blend of luxury living and natural beauty, with expansive parks, jogging trails, and recreational facilities just moments away. Located within the prestigious Dubai Hills Estate, Sidra is perfectly positioned for convenience, offering quick connections to key areas of Dubai while maintaining an atmosphere of tranquility and privacy.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006524</t>
+          <t>HI-S-006813</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6531921921</t>
+          <t>6529142764</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13964256.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14191950.html</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4650,37 +4646,32 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Type E3</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>5708</t>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t>4519</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>4-Bedroom, Type E3 | Single Row | Vacant</t>
+          <t>Great Location | Top Condition | Must See | VOT</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Fariha Zahid</t>
+          <t>Constantinos Philippou</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4695,24 +4686,24 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International proudly presents this stunning 4-bedroom villa in Sidra 1, Dubai Hills Estate, offering elegant interiors, spacious living areas, a modern kitchen, and a private garden, all within a vibrant, family-friendly community.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Property Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;4 Bedrooms Plus Maids Room&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Fully Landscaped garden&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Single row&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;BUA - 3,523 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Plot - 5708 sqft&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Ready to move in&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact Fariha Zahid 00971-565477115 for more details today!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sidra in Dubai Hills is an exclusive, family-friendly community set amidst lush greenery and scenic landscapes. Known for its modern villas and serene surroundings, Sidra offers a peaceful retreat with easy access to world-class amenities. Residents enjoy a blend of luxury living and natural beauty, with expansive parks, jogging trails, and recreational facilities just moments away. Located within the prestigious Dubai Hills Estate, Sidra is perfectly positioned for convenience, offering quick connections to key areas of Dubai while maintaining an atmosphere of tranquility and privacy.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International and Costa proudly present this rare and exceptional villa in the prestigious Sidra community of Dubai Hills Estate. Offering contemporary design, spacious living, and prime location, this home is perfect for luxury family living in one of Dubai’s most desired areas.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;4 bedrooms + maids room&lt;/p&gt;&lt;p&gt;Built up area - 3,607sqft&lt;/p&gt;&lt;p&gt;Plot size - 4,519sqft&lt;/p&gt;&lt;p&gt;2 car parking&lt;/p&gt;&lt;p&gt;Upgraded kitchen &amp;amp; flooring&lt;/p&gt;&lt;p&gt;Vacant on transfer&lt;/p&gt;&lt;p&gt;Back-to-back&lt;/p&gt;&lt;p&gt;Close to amenities &amp;amp; entrance&lt;/p&gt;&lt;p&gt;Gated community&lt;/p&gt;&lt;p&gt;Access to community facilities&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Sidra 1 is a premium residential community located within the prestigious Dubai Hills Estate, developed by Emaar. It features modern homes with contemporary architecture, spacious layouts, and high-end finishes. Surrounded by lush greenery, parks, and walking trails, Sidra 1 offers a serene suburban lifestyle while being just minutes away from central Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Residents enjoy access to top-tier amenities, including the Dubai Hills Mall, schools, hospitals, golf course, and community centres, making it an ideal location for families seeking both luxury and convenience.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Photos used in this listing may not reflect the actual property and are intended for marketing purposes only. Please schedule a viewing for accurate details.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006813</t>
+          <t>HI-S-006897</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6529142764</t>
+          <t>6543951861</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14191950.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14223385.html</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4727,7 +4718,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sidra Villas I</t>
+          <t>Sidra Villas II</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4736,7 +4727,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10000000</v>
+        <v>10700000</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
@@ -4746,28 +4737,33 @@
           <t>Villa</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Type E3</t>
+        </is>
+      </c>
       <c r="M39" s="5" t="inlineStr">
         <is>
-          <t>3607</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>4519</t>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>4900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Great Location | Top Condition | Must See | VOT</t>
+          <t>Upgraded | Perfect Condition | Vastu</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4786,24 +4782,24 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International and Costa proudly present this rare and exceptional villa in the prestigious Sidra community of Dubai Hills Estate. Offering contemporary design, spacious living, and prime location, this home is perfect for luxury family living in one of Dubai’s most desired areas.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;4 bedrooms + maids room&lt;/p&gt;&lt;p&gt;Built up area - 3,607sqft&lt;/p&gt;&lt;p&gt;Plot size - 4,519sqft&lt;/p&gt;&lt;p&gt;2 car parking&lt;/p&gt;&lt;p&gt;Upgraded kitchen &amp;amp; flooring&lt;/p&gt;&lt;p&gt;Vacant on transfer&lt;/p&gt;&lt;p&gt;Back-to-back&lt;/p&gt;&lt;p&gt;Close to amenities &amp;amp; entrance&lt;/p&gt;&lt;p&gt;Gated community&lt;/p&gt;&lt;p&gt;Access to community facilities&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Sidra 1 is a premium residential community located within the prestigious Dubai Hills Estate, developed by Emaar. It features modern homes with contemporary architecture, spacious layouts, and high-end finishes. Surrounded by lush greenery, parks, and walking trails, Sidra 1 offers a serene suburban lifestyle while being just minutes away from central Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Residents enjoy access to top-tier amenities, including the Dubai Hills Mall, schools, hospitals, golf course, and community centres, making it an ideal location for families seeking both luxury and convenience.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Photos used in this listing may not reflect the actual property and are intended for marketing purposes only. Please schedule a viewing for accurate details.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International, in collaboration with Costa, proudly presents a stunning and impeccably maintained villa in the highly sought-after Sidra 2, Dubai Hills Estate—offering luxury living, spacious interiors, and a prime location within one of Dubai’s premier communities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Key Features: &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;-4 bedrooms&lt;/p&gt;&lt;p&gt;-Maids room&lt;/p&gt;&lt;p&gt;-BUA - 3,533sqft&lt;/p&gt;&lt;p&gt;-Plot - 4,900sqft&lt;/p&gt;&lt;p&gt;-Back-to-back&lt;/p&gt;&lt;p&gt;-Upgraded modern kitchen and flooring&lt;/p&gt;&lt;p&gt;-Vacant on transfer&lt;/p&gt;&lt;p&gt;-Immaculate condition&lt;/p&gt;&lt;p&gt;-Landscaped garden&lt;/p&gt;&lt;p&gt;-Bright and spacious&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Experience refined living in this beautifully crafted 4-bedroom villa, nestled in the prestigious Sidra community of Dubai Hills Estate. Designed with sophistication and comfort in mind, this home showcases contemporary architecture, generous open-plan living spaces, and an abundance of natural light through expansive floor-to-ceiling windows.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Located in one of Dubai&amp;#39;s most sought-after communities, residents of Sidra enjoy lush green surroundings, proximity to international schools, Dubai Hills Mall, and the championship golf course, all while being just minutes from Downtown Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;This is more than a home — it’s a lifestyle of understated luxury and everyday convenience&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006897</t>
+          <t>HI-S-006953</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6543951861</t>
+          <t>6543830172</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14223385.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14249982.html</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4827,10 +4823,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10700000</v>
+        <v>14600000</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -4839,35 +4835,35 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Type E3</t>
+          <t>Type E5</t>
         </is>
       </c>
       <c r="M40" s="5" t="inlineStr">
         <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>4900</t>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Upgraded | Perfect Condition | Vastu</t>
+          <t>Corner Unit | Extended | Upgraded</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Constantinos Philippou</t>
+          <t>Rili Chen</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4882,24 +4878,24 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International, in collaboration with Costa, proudly presents a stunning and impeccably maintained villa in the highly sought-after Sidra 2, Dubai Hills Estate—offering luxury living, spacious interiors, and a prime location within one of Dubai’s premier communities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Key Features: &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;-4 bedrooms&lt;/p&gt;&lt;p&gt;-Maids room&lt;/p&gt;&lt;p&gt;-BUA - 3,533sqft&lt;/p&gt;&lt;p&gt;-Plot - 4,900sqft&lt;/p&gt;&lt;p&gt;-Back-to-back&lt;/p&gt;&lt;p&gt;-Upgraded modern kitchen and flooring&lt;/p&gt;&lt;p&gt;-Vacant on transfer&lt;/p&gt;&lt;p&gt;-Immaculate condition&lt;/p&gt;&lt;p&gt;-Landscaped garden&lt;/p&gt;&lt;p&gt;-Bright and spacious&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Experience refined living in this beautifully crafted 4-bedroom villa, nestled in the prestigious Sidra community of Dubai Hills Estate. Designed with sophistication and comfort in mind, this home showcases contemporary architecture, generous open-plan living spaces, and an abundance of natural light through expansive floor-to-ceiling windows.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Located in one of Dubai&amp;#39;s most sought-after communities, residents of Sidra enjoy lush green surroundings, proximity to international schools, Dubai Hills Mall, and the championship golf course, all while being just minutes from Downtown Dubai.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;This is more than a home — it’s a lifestyle of understated luxury and everyday convenience&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International presents this spacious 5-bedroom home with built-in wardrobes and sunlit windows. Includes 6 modern bathrooms with premium finishes, a maid&amp;#39;s room, study, and laundry facilities—ideal for comfortable, upscale living.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bedrooms&lt;/strong&gt;: 5 spacious rooms, each designed with built-in wardrobes and large windows to ensure ample natural light.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bathrooms&lt;/strong&gt;: 6 modern bathrooms, featuring high-end fixtures and finishes.&lt;/p&gt;&lt;p&gt;Maids room, study, and laundry facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h3&gt;Community &amp;amp; Lifestyle&lt;/h3&gt;&lt;p&gt;Sidra Villas is nestled within the expansive Dubai Hills Estate, a master-planned community that emphasizes green living and family-friendly amenities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Parks And Green Spaces&lt;/strong&gt;: Access to lush parks and landscaped gardens.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Recreational Facilities&lt;/strong&gt;: Swimming pools, fully equipped gyms, and children&amp;#39;s play areas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Walking And Cycling Trails&lt;/strong&gt;: Well-maintained paths promoting an active lifestyle.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Retail And Dining&lt;/strong&gt;: Proximity to Dubai Hills Mall and various dining options.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Educational And Healthcare&lt;/strong&gt;: Nearby schools and medical facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Strategically located between Downtown Dubai and Dubai Marina, Sidra Villas offers easy access to major roads like Al Khail Road and Sheikh Mohammed Bin Zayed Road. Future connectivity enhancements, including the Etihad Rail and Dubai Metro lines, will further improve accessibility.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact us today for more details!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>HI-S-006953</t>
+          <t>HI-S-007518</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6543830172</t>
+          <t>6544322736</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14249982.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14655673.html</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4923,10 +4919,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>14600000</v>
+        <v>8750000</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -4935,35 +4931,35 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Type E5</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t>4109</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>Type E1</t>
+        </is>
+      </c>
+      <c r="M41" s="5" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t>4601</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Corner Unit | Extended | Upgraded</t>
+          <t>Vacant | Next to Amenities | Well Maintained</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Rili Chen</t>
+          <t>Ali Kazma</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4978,24 +4974,24 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hamptons International presents this spacious 5-bedroom home with built-in wardrobes and sunlit windows. Includes 6 modern bathrooms with premium finishes, a maid&amp;#39;s room, study, and laundry facilities—ideal for comfortable, upscale living.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Villa Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bedrooms&lt;/strong&gt;: 5 spacious rooms, each designed with built-in wardrobes and large windows to ensure ample natural light.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Bathrooms&lt;/strong&gt;: 6 modern bathrooms, featuring high-end fixtures and finishes.&lt;/p&gt;&lt;p&gt;Maids room, study, and laundry facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h3&gt;Community &amp;amp; Lifestyle&lt;/h3&gt;&lt;p&gt;Sidra Villas is nestled within the expansive Dubai Hills Estate, a master-planned community that emphasizes green living and family-friendly amenities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Parks And Green Spaces&lt;/strong&gt;: Access to lush parks and landscaped gardens.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Recreational Facilities&lt;/strong&gt;: Swimming pools, fully equipped gyms, and children&amp;#39;s play areas.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Walking And Cycling Trails&lt;/strong&gt;: Well-maintained paths promoting an active lifestyle.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Retail And Dining&lt;/strong&gt;: Proximity to Dubai Hills Mall and various dining options.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Educational And Healthcare&lt;/strong&gt;: Nearby schools and medical facilities.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Strategically located between Downtown Dubai and Dubai Marina, Sidra Villas offers easy access to major roads like Al Khail Road and Sheikh Mohammed Bin Zayed Road. Future connectivity enhancements, including the Etihad Rail and Dubai Metro lines, will further improve accessibility.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact us today for more details!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
+          <t>&lt;p&gt;Hamptons International is proud to present this immaculately maintained 3-bedroom + maid&amp;#39;s villa in the highly sought-after Sidra community of Dubai Hills Estate. This property is vacant and ready to move in, making it ideal for families or investors looking for immediate occupancy.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Situated just steps away from community amenities including the pool, park, and fitness facilities, this villa offers both comfort and convenience in one of Dubai’s most prestigious neighborhoods.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Property Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;3 Spacious Bedrooms&lt;/p&gt;&lt;p&gt;En-suite Maid’s Room&lt;/p&gt;&lt;p&gt;Bright Living &amp;amp; Dining Area with Large Windows&lt;/p&gt;&lt;p&gt;Open-Plan Modern Kitchen&lt;/p&gt;&lt;p&gt;Covered Parking for 2 Cars&lt;/p&gt;&lt;p&gt;Private Garden&lt;/p&gt;&lt;p&gt;BUA: 3455 sq.ft. | Plot: 4601 sq.ft.&lt;/p&gt;&lt;p&gt;Extremely Well Maintained – Like New&lt;/p&gt;&lt;p&gt;Vacant and Easy to View&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Community Highlights:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Gated Community with 24/7 Security&lt;/p&gt;&lt;p&gt;Walking Distance to Pool, Park &amp;amp; Playground&lt;/p&gt;&lt;p&gt;Close to Dubai Hills Mall, Schools &amp;amp; Hospitals&lt;/p&gt;&lt;p&gt;Quick Access to Al Khail Road &amp;amp; Downtown Dubai&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact Ali Kazma now for further details!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>HI-S-007518</t>
+          <t>HYD-1859</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6544322736</t>
+          <t>6543830090</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14655673.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14411857.html</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5019,10 +5015,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8750000</v>
+        <v>15000000</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -5031,40 +5027,40 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Type E1</t>
+          <t>Type E3</t>
         </is>
       </c>
       <c r="M42" s="5" t="inlineStr">
         <is>
-          <t>3455</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>4601</t>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t>6537</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Vacant | Next to Amenities | Well Maintained</t>
+          <t>One Of A Kind | Fully Extended | Upgraded</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Ali Kazma</t>
+          <t>Dean Parrett</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Hamptons International - T1</t>
+          <t>HYDE REAL ESTATE</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -5073,102 +5069,6 @@
         </is>
       </c>
       <c r="U42" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Hamptons International is proud to present this immaculately maintained 3-bedroom + maid&amp;#39;s villa in the highly sought-after Sidra community of Dubai Hills Estate. This property is vacant and ready to move in, making it ideal for families or investors looking for immediate occupancy.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Situated just steps away from community amenities including the pool, park, and fitness facilities, this villa offers both comfort and convenience in one of Dubai’s most prestigious neighborhoods.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Property Features:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;3 Spacious Bedrooms&lt;/p&gt;&lt;p&gt;En-suite Maid’s Room&lt;/p&gt;&lt;p&gt;Bright Living &amp;amp; Dining Area with Large Windows&lt;/p&gt;&lt;p&gt;Open-Plan Modern Kitchen&lt;/p&gt;&lt;p&gt;Covered Parking for 2 Cars&lt;/p&gt;&lt;p&gt;Private Garden&lt;/p&gt;&lt;p&gt;BUA: 3455 sq.ft. | Plot: 4601 sq.ft.&lt;/p&gt;&lt;p&gt;Extremely Well Maintained – Like New&lt;/p&gt;&lt;p&gt;Vacant and Easy to View&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Community Highlights:&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Gated Community with 24/7 Security&lt;/p&gt;&lt;p&gt;Walking Distance to Pool, Park &amp;amp; Playground&lt;/p&gt;&lt;p&gt;Close to Dubai Hills Mall, Schools &amp;amp; Hospitals&lt;/p&gt;&lt;p&gt;Quick Access to Al Khail Road &amp;amp; Downtown Dubai&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Contact Ali Kazma now for further details!&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Hamptons International is part of Emaar Group of Companies, your all-in-one solution for premier real estate services. We cover all your sales, leasing, property management, valuations/research, and relocation needs. Let’s start your journey here.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>HYD-1859</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>6543830090</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14411857.html</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sidra Villas II</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Type E3</t>
-        </is>
-      </c>
-      <c r="M43" s="5" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>6537</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>One Of A Kind | Fully Extended | Upgraded</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>37</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Dean Parrett</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>HYDE REAL ESTATE</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
         <is>
           <t>One Of A Kind | Fully Extended | Upgraded 
 -  Fully Upgraded
@@ -5188,97 +5088,97 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>HYD-1892</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>65102648923</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14492033.html</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H43" t="n">
         <v>10700000</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I43" t="n">
         <v>4</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M44" s="5" t="inlineStr">
-        <is>
-          <t>5011</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N43" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Prime Location | Spacious Plot | Type E3</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>2025-06-13</t>
         </is>
       </c>
-      <c r="Q44" t="n">
-        <v>26</v>
-      </c>
-      <c r="R44" t="inlineStr">
+      <c r="Q43" t="n">
+        <v>27</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Jake Goddard</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>HYDE REAL ESTATE</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>Hyde Real Estate is delighted to present this exceptional 4-bedroom villa in Sidra Villas III, offering a luxurious lifestyle within the prestigious Dubai Hills Estate. 
 Crafted by Emaar, this elegantly designed residence blends generous space with high-end amenities—perfect for discerning buyers who value comfort, privacy, and convenience.
@@ -5306,97 +5206,97 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>HYD-931</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>65102648640</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13403792.html</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H44" t="n">
         <v>11500000</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I44" t="n">
         <v>4</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M45" s="5" t="inlineStr">
-        <is>
-          <t>6085</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>4 Bed I Large Plot I Sidra 3 I Exclusive</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
-      <c r="Q45" t="n">
-        <v>162</v>
-      </c>
-      <c r="R45" t="inlineStr">
+      <c r="Q44" t="n">
+        <v>163</v>
+      </c>
+      <c r="R44" t="inlineStr">
         <is>
           <t>James Bloor</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>HYDE REAL ESTATE</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>4 Bed I Large Plot I Sidra 3 I Close to Pool and Park
 - Type E3 Large Layout
@@ -5417,97 +5317,97 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>L-171445</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>6529118567</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14452237.html</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H45" t="n">
         <v>16000000</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I45" t="n">
         <v>5</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M46" s="5" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr">
+        <is>
+          <t>4283</t>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr">
         <is>
           <t>6398</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Great location | Vacant soon | Community expert</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="Q46" t="n">
-        <v>30</v>
-      </c>
-      <c r="R46" t="inlineStr">
+      <c r="Q45" t="n">
+        <v>31</v>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>Megan Acomb</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>Strada is delighted to bring to the market this 5 Bedroom, E5 type villa in Sidra I, Dubai Hills Estate.
 Property Features and Details:
@@ -5528,97 +5428,97 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>L-172095</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>65102643967</t>
         </is>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14576597.html</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H46" t="n">
         <v>12000000</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I46" t="n">
         <v>4</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M47" s="4" t="inlineStr">
+      <c r="M46" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>6331</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Large Plot | View Today | Vacant on Transfer</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="Q47" t="n">
-        <v>15</v>
-      </c>
-      <c r="R47" t="inlineStr">
+      <c r="Q46" t="n">
+        <v>16</v>
+      </c>
+      <c r="R46" t="inlineStr">
         <is>
           <t>George Evans</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>Strada are proud to offer this 4 bedroom (Type E3) villa with a large plot size in Sidra.
 - 4 Bed plus Maids
@@ -5635,97 +5535,97 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>L-172245</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>6544018049</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14600792.html</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H47" t="n">
         <v>16500000</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I47" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M48" s="5" t="inlineStr">
+      <c r="M47" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N47" s="4" t="inlineStr">
         <is>
           <t>6096</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>6096</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Private Pool | Park Backing | Community Expert</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2025-06-26</t>
         </is>
       </c>
-      <c r="Q48" t="n">
-        <v>13</v>
-      </c>
-      <c r="R48" t="inlineStr">
+      <c r="Q47" t="n">
+        <v>14</v>
+      </c>
+      <c r="R47" t="inlineStr">
         <is>
           <t>Megan Acomb</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>Strada is delighted to bring to the market this 5 Bedroom, E5 type villa in Sidra II, Dubai Hills Estate.
 Property Features and Details:
@@ -5747,97 +5647,97 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>L-172428</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>6529142786</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14641008.html</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H48" t="n">
         <v>13500000</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I48" t="n">
         <v>5</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Type E4</t>
         </is>
       </c>
-      <c r="M49" s="5" t="inlineStr">
-        <is>
-          <t>4107</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M48" s="5" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="N48" s="4" t="inlineStr">
         <is>
           <t>5334</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Extended | Park Backing | Community Expert</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
       </c>
-      <c r="Q49" t="n">
-        <v>7</v>
-      </c>
-      <c r="R49" t="inlineStr">
+      <c r="Q48" t="n">
+        <v>8</v>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>Megan Acomb</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>Strada is delighted to bring to the market this 5 Bedroom, E4 type villa in Sidra I, Dubai Hills Estate.
 Property Features and Details:
@@ -5857,97 +5757,97 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>L-172451</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>6527973633</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14678265.html</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H49" t="n">
         <v>8750000</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I49" t="n">
         <v>3</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M50" s="5" t="inlineStr">
+      <c r="M49" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N49" s="4" t="inlineStr">
         <is>
           <t>4359</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Exclusive | VOT | Area Specialist | View Now</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Keys In Hand | Vacant | Single Row</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>2025-07-06</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="inlineStr">
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>Robert White</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>Strada presents this well-maintained Type E1 3-bedroom villa in the highly sought-after Sidra community, located in Dubai Hills Estate. Positioned on a generous plot, this home offers the perfect blend of space, functionality, and location.
 Property Details:
@@ -5966,97 +5866,97 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>L-172522</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>65102648858</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14670544.html</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="H50" t="n">
         <v>11000000</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I50" t="n">
         <v>4</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M51" s="5" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
+      <c r="M50" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N50" s="4" t="inlineStr">
         <is>
           <t>5209</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>Community Expert | Exclusive | Vacant</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2025-07-05</t>
         </is>
       </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="inlineStr">
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>Annabelle Acomb</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>Strada</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>Strada is proud to present this spacious 4-bedroom Type E3 villa located in the prestigious Sidra III community, Dubai Hills Estate.
 Property Details:
@@ -6072,92 +5972,92 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>L-6545</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>6531968111</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14219837.html</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="H51" t="n">
         <v>16500000</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I51" t="n">
         <v>4</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M52" s="3" t="inlineStr">
+      <c r="M51" s="3" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N51" s="4" t="inlineStr">
         <is>
           <t>4650</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Ultra Luxurious | Fully Upgraded | Vacant Soon</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="Q52" t="n">
-        <v>61</v>
-      </c>
-      <c r="R52" t="inlineStr">
+      <c r="Q51" t="n">
+        <v>62</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Peter Delargey</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>EQUITY REAL ESTATES L.L.C</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>Equity wants you to experience a luxurious living space meticulously upgraded to offer an unparalleled lifestyle in Sidra Villa, Dubai Hills Estate.
 - 4 Bedroom + Maids
@@ -6180,92 +6080,92 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>L-6575</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>6527985501</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14659854.html</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="H52" t="n">
         <v>12950000</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I52" t="n">
         <v>5</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M53" s="5" t="inlineStr">
+      <c r="M52" s="3" t="inlineStr">
         <is>
           <t>3757</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N52" s="4" t="inlineStr">
         <is>
           <t>5988</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>End Plot | Green Belt | Large Layout | Must See</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="Q53" t="n">
-        <v>6</v>
-      </c>
-      <c r="R53" t="inlineStr">
+      <c r="Q52" t="n">
+        <v>7</v>
+      </c>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Thomas Cross</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>EQUITY REAL ESTATES L.L.C</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>Equity is pleased to present this exceptional 5-bedroom Villa in Sidra Villas 1, located in Dubai Hills Estate, Dubai.
 - Corner Unit
@@ -6282,92 +6182,92 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>L-800</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>6531921899</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14119797.html</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="H53" t="n">
         <v>13750000</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I53" t="n">
         <v>5</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M54" s="5" t="inlineStr">
+      <c r="M53" s="3" t="inlineStr">
         <is>
           <t>5652</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N53" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>Fully Upgraded | Big Pool | Green Belt | Vacant</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="Q54" t="n">
-        <v>72</v>
-      </c>
-      <c r="R54" t="inlineStr">
+      <c r="Q53" t="n">
+        <v>73</v>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Syed Saqib Ali</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>Keller Williams Sheikh Zayed Road</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>Keller Williams Real Estate Dubai is proud to present this fascinating 5-bedroom villa available for rent.
 Located in Sidra 1, Dubai Hills, this 5,652.88 sqft villa is ideal for families seeking a spacious and comfortable lifestyle. The community features green public parks and swimming pools available for all residents.
@@ -6392,20 +6292,116 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>LIV-S-1267</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6544322776</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14600503.html</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sidra Villas II</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>15350000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Type E3</t>
+        </is>
+      </c>
+      <c r="M54" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Premium Upgraded / Extended / Private Pool</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>14</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Iana Varyvoda</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Livrichy Real Estate Brokerage - Business Bay</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Livrichy Real Estate is delighted to present this elegant villa for sale located in the highly sought-after Sidra 2 community within Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Property Details:&lt;br /&gt;&lt;br /&gt;- Premium finishing&lt;br /&gt;- Full renovated (inside &amp;amp; out)&lt;br /&gt;- Private pool&lt;br /&gt;- BBQ and dining area, bar&lt;br /&gt;- Fully extended&lt;br /&gt;- Prime location&lt;br /&gt;- Large 4 bedroom &lt;br /&gt;- BUA: 4,640.86 sq ft&lt;br /&gt;&lt;br /&gt;This luxurious villa boasts a stunning infinity-edge pool, paired with a cozy fire pit lounge and a high-end outdoor culinary area - ideal for elegant gatherings and alfresco dining.&lt;br /&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Community Highlights:&lt;br /&gt;&lt;br /&gt;Family-friendly, secure environment&lt;br /&gt;Developed by Emaar in partnership with Meraas&lt;br /&gt;Located within Dubai’s premier golf course community&lt;br /&gt;18-hole championship golf course just minutes away&lt;br /&gt;Dubai Hills Mall nearby for retail, dining, and entertainment&lt;br /&gt;Two world-class hospitals, including King's College London Hospital&lt;br /&gt;Quick access to top international schools: Brighton College, GEMS, Kings School (approx. 15 minutes)&lt;br /&gt;Seamless connectivity to Al Khail Road and Umm Suqeim Street&lt;/p&gt;&lt;br /&gt;</t>
+        </is>
+      </c>
+    </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>LIV-S-1267</t>
+          <t>LP45347</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6544322776</t>
+          <t>65102648580</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14600503.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14424924.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6420,7 +6416,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sidra Villas II</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -6429,7 +6425,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>15350000</v>
+        <v>13000000</v>
       </c>
       <c r="I55" t="n">
         <v>4</v>
@@ -6446,35 +6442,35 @@
       </c>
       <c r="M55" s="5" t="inlineStr">
         <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t>4669</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Premium Upgraded / Extended / Private Pool</t>
+          <t>Exclusive | Elevated Plot | Backing Park</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Iana Varyvoda</t>
+          <t>Keisha Lois Reid</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Livrichy Real Estate Brokerage - Business Bay</t>
+          <t>LuxuryProperty.com</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -6484,24 +6480,24 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Livrichy Real Estate is delighted to present this elegant villa for sale located in the highly sought-after Sidra 2 community within Dubai Hills Estate.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Property Details:&lt;br /&gt;&lt;br /&gt;- Premium finishing&lt;br /&gt;- Full renovated (inside &amp;amp; out)&lt;br /&gt;- Private pool&lt;br /&gt;- BBQ and dining area, bar&lt;br /&gt;- Fully extended&lt;br /&gt;- Prime location&lt;br /&gt;- Large 4 bedroom &lt;br /&gt;- BUA: 4,640.86 sq ft&lt;br /&gt;&lt;br /&gt;This luxurious villa boasts a stunning infinity-edge pool, paired with a cozy fire pit lounge and a high-end outdoor culinary area - ideal for elegant gatherings and alfresco dining.&lt;br /&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Community Highlights:&lt;br /&gt;&lt;br /&gt;Family-friendly, secure environment&lt;br /&gt;Developed by Emaar in partnership with Meraas&lt;br /&gt;Located within Dubai’s premier golf course community&lt;br /&gt;18-hole championship golf course just minutes away&lt;br /&gt;Dubai Hills Mall nearby for retail, dining, and entertainment&lt;br /&gt;Two world-class hospitals, including King's College London Hospital&lt;br /&gt;Quick access to top international schools: Brighton College, GEMS, Kings School (approx. 15 minutes)&lt;br /&gt;Seamless connectivity to Al Khail Road and Umm Suqeim Street&lt;/p&gt;&lt;br /&gt;</t>
+          <t>&lt;p&gt;Presented by LuxuryProperty.com, this exclusive four-bedroom villa in Sidra 3, Dubai Hills Estate, sits on an elevated corner plot backing directly onto the park and tennis courts. Boasting open views and a peaceful setting, the villa offers a unique opportunity for families seeking a private, park-facing home in one of Dubais most prestigious communities. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Key Features:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;br&gt; 4 Bedrooms, 4 Bathrooms&lt;br&gt; BUA: 3,500 sq. ft.&lt;br&gt; Plot: 4,669 sq. ft.&lt;br&gt; Elevated Corner Plot&lt;br&gt; Direct Park &amp;amp; Tennis Court Views&lt;br&gt; Contemporary Interior Finish&lt;br&gt; Vacant in 4 Weeks&lt;br&gt; Family-Friendly Layout&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Sidra 3 is a sought-after sub-community within Dubai Hills Estate, known for its well-planned streets, green landscapes, and easy access to top schools, Dubai Hills Mall, and major roads. Residents enjoy world-class amenities including parks, fitness trails, and golf facilities, making this home an excellent investment for modern family living.&lt;/p&gt;</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>LP45347</t>
+          <t>MS-23804</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>65102648580</t>
+          <t>65102647979</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14424924.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13916787.html</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6525,7 +6521,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>13000000</v>
+        <v>10000000</v>
       </c>
       <c r="I56" t="n">
         <v>4</v>
@@ -6542,35 +6538,35 @@
       </c>
       <c r="M56" s="5" t="inlineStr">
         <is>
-          <t>3500</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>4669</t>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Exclusive | Elevated Plot | Backing Park</t>
+          <t>Large Plot | Great Community | Investment Deal</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Keisha Lois Reid</t>
+          <t>Tursunboy Norboev</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>LuxuryProperty.com</t>
+          <t>Metropolitan Premium Properties</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -6579,102 +6575,6 @@
         </is>
       </c>
       <c r="U56" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Presented by LuxuryProperty.com, this exclusive four-bedroom villa in Sidra 3, Dubai Hills Estate, sits on an elevated corner plot backing directly onto the park and tennis courts. Boasting open views and a peaceful setting, the villa offers a unique opportunity for families seeking a private, park-facing home in one of Dubais most prestigious communities. &lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Key Features:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;br&gt; 4 Bedrooms, 4 Bathrooms&lt;br&gt; BUA: 3,500 sq. ft.&lt;br&gt; Plot: 4,669 sq. ft.&lt;br&gt; Elevated Corner Plot&lt;br&gt; Direct Park &amp;amp; Tennis Court Views&lt;br&gt; Contemporary Interior Finish&lt;br&gt; Vacant in 4 Weeks&lt;br&gt; Family-Friendly Layout&lt;/li&gt;&lt;/ul&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Sidra 3 is a sought-after sub-community within Dubai Hills Estate, known for its well-planned streets, green landscapes, and easy access to top schools, Dubai Hills Mall, and major roads. Residents enjoy world-class amenities including parks, fitness trails, and golf facilities, making this home an excellent investment for modern family living.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>MS-23804</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>65102647979</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13916787.html</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Type E3</t>
-        </is>
-      </c>
-      <c r="M57" s="4" t="inlineStr">
-        <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Large Plot | Great Community | Investment Deal</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>2025-04-05</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>95</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Tursunboy Norboev</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Metropolitan Premium Properties</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
         <is>
           <t>Metropolitan Premium Properties is proud to present this stunning 4-bedroom villa in Sidra Villas III, Dubai Hills Estate.
 Property Details and Features:
@@ -6695,97 +6595,97 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>MSP-17020</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>65102648723</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14671788.html</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="H57" t="n">
         <v>14500000</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I57" t="n">
         <v>4</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M58" s="4" t="inlineStr">
+      <c r="M57" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N57" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>Best Location | Under Renovation | 4 Beds + Maids</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>2025-07-05</t>
         </is>
       </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="inlineStr">
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>Bekzod Anarkulov</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>Metropolitan Premium Properties</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>Metropolitan Premium Properties is proud to present this exquisite 4-bedroom Villa in Sidra Villas III at Dubai Hills Estate
 Property Details and Features
@@ -6805,92 +6705,92 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>MSP-17022</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>6527985519</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14671983.html</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="H58" t="n">
         <v>12500000</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I58" t="n">
         <v>5</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M59" s="3" t="inlineStr">
+      <c r="M58" s="3" t="inlineStr">
         <is>
           <t>5495</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N58" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>Community Living | Large Layout | Landscaped</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>2025-07-05</t>
         </is>
       </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="inlineStr">
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>Irina Bulaeva</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>Metropolitan Premium Properties</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>Metropolitan Premium Properties is proud to present this spacious 5-bedroom villa in Sidra Villas I, Dubai Hills Estate.
 Property Details and Features:
@@ -6913,97 +6813,97 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>PB-S-11722</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>6529118567</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14456130.html</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="H59" t="n">
         <v>16000000</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I59" t="n">
         <v>5</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr">
+      <c r="M59" s="5" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N59" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>Vacant on transfer l Great Location l Type E5</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2025-06-09</t>
         </is>
       </c>
-      <c r="Q60" t="n">
-        <v>30</v>
-      </c>
-      <c r="R60" t="inlineStr">
+      <c r="Q59" t="n">
+        <v>31</v>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>Ryan Kent</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>Arabian Estates</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>Arabian Estates is delighted to share to bring to the market this incredibly well located 5 bedroom type E5 in Sidra 1. Backing onto the main community green belt and close proximity to multiple parks and the community pool and gym.
 Property Details:
@@ -7025,97 +6925,97 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>PB-S-12260</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>6531921899</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14652710.html</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="H60" t="n">
         <v>13500000</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I60" t="n">
         <v>5</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Type E4</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr">
+      <c r="M60" s="5" t="inlineStr">
         <is>
           <t>3757</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N60" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>Green Belt | High Rent | Ready to Close</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="Q61" t="n">
-        <v>6</v>
-      </c>
-      <c r="R61" t="inlineStr">
+      <c r="Q60" t="n">
+        <v>7</v>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>Imad Najib</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>Arabian Estates</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>Arabian Estates is delighted to share this incredibly well located 5 bedroom type E4 in Sidra 1. Backing onto the main community green belt and close proximity to multiple parks and the community pool, this property presents a great investment opportunity due to its incredibly high rental value. 
 The current tenant has confirmed they will be exiting the villa in December 2025 so will allow for any future end user to move into this stunning home.
@@ -7139,6 +7039,121 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>PB-S-12574</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>65102648327</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14698558.html</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sidra Villas III</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>21649000</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Type E5</t>
+        </is>
+      </c>
+      <c r="M61" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Fully Extended | Community Expert | Unique Upgrade</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Imad Najib</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Arabian Estates</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Arabian Estates proudly presents this extraordinary, luxurious 5-bedroom standalone villa by Emaar in Sidra 3, Dubai Hills.
+Experience the ultimate blend of luxury, comfort, and practicality in this beautifully renovated home. Its stunning floors, walls, and shelves, along with the open-concept living areas, make every detail a pleasure to behold. The custom-built pool and pergolas in front and back yards, complete with a sunken fire pit seating area next to the pool, are awe-inspiring. With extra outdoor roofing for shade, the private pool gets plenty of sunlight all day and into the afternoon?it&amp;#39;s the ultimate resort-style home and a dream come true. 
+Step into your personal oasis: 
+- 5 Bed
+- 7 Baths
+- Largest type 
+- Maids/Drivers&amp;#39; room
+- Private Pool 
+- 2 Pergolas
+- Sunken fire pit
+- Barbecue Area
+- Landscaped Garden
+- Park Backing/View
+- Parking Space
+- Vacant On Transfer 
+Dubai Hills Estate and Sidra provide easy access to Palm Jumeirah, Marina, Downtown, Dubai International Airport, and the new Al Maktoum Airport. The community offers essential amenities, including a large park, Dubai Hills Mall, highly desirable schools, two hospitals, entertainment options, multiple playgrounds, and the renowned Dubai Hills Golf Club for your leisure and recreational needs.
+For more information and viewing, please call:
+Imad Najib | Senior Dubai Hills Community Expert
+RERA BRN | 64447
+Arabian Estates is a real estate agency based in Dubai. With a team of experienced and service-minded agents ready to help clients buy, sell, and rent their properties.</t>
+        </is>
+      </c>
+    </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
@@ -7193,17 +7208,17 @@
       </c>
       <c r="M62" s="5" t="inlineStr">
         <is>
-          <t>3345</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Vacant now | Extended | Big Plot | Corner</t>
+          <t>Extended | Corner | Vacant | Single row</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -7212,7 +7227,7 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -7303,17 +7318,17 @@
       </c>
       <c r="M63" s="5" t="inlineStr">
         <is>
-          <t>3833</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="N63" s="4" t="inlineStr">
         <is>
           <t>4810</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Owner occupied | On top of the hill | Extended</t>
+          <t>VOT | Fully extended | Spanish tiles</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7322,7 +7337,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -7409,12 +7424,12 @@
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M64" s="4" t="inlineStr">
+      <c r="M64" s="5" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N64" s="4" t="inlineStr">
         <is>
           <t>6030</t>
         </is>
@@ -7430,7 +7445,7 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -7526,19 +7541,19 @@
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M65" s="4" t="inlineStr">
+      <c r="M65" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N65" s="4" t="inlineStr">
         <is>
           <t>4347</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Ready to move | Fully Furnished | Upgraded</t>
+          <t>Upgraded | Vacant | Corner | Emaar</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -7547,7 +7562,7 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -7588,17 +7603,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Portal-AT-378928</t>
+          <t>PS-0407252</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6531910545</t>
+          <t>6527985601</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14654955.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14669039.html</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7622,34 +7637,39 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>17000000</v>
+        <v>14150000</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>5659</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Type E4</t>
+        </is>
+      </c>
+      <c r="M66" s="5" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="N66" s="4" t="inlineStr">
+        <is>
+          <t>5233</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Full renovated | Luxury 4BR + M | Extended | Pool</t>
+          <t>Unique | Green Belt | Upgraded</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="Q66" t="n">
@@ -7657,20 +7677,130 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
+          <t>Anastasiia Sarnavska</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Provident Real Estate</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports. Everything you could need and want for the best lifestyle is within the community. This is where convenience meets you at the comfort of your home.
+ Plot Area: 5,233 sq. ft
+ BUA: 3,741 soft
+ 5 Bed + Maids
+ 5 Bathrooms
+ 2 Covered Parking 
+ Fully Furnished by Italian Brand
+ VOT
+ Private Location
+ Private Pool
+ Type E4
+ Upgraded
+ Dubai Hills Estate is strategically positioned on Al Khail Road and southeast of Downtown Dubai, making it an ideal haven for a relaxed and safe family life. The destination has an endless supply of nature trails and green spaces, so you can live life in harmony with nature and world-class residential, hospitality and retail districts. This is where life truly is extraordinary.
+ Immerse yourself in the things you love the most in a home planned to the very last detail. The collection of villas at Sidra are equipped with all the modern amenities you’d imagine a private paradise to have; gorgeous kitchen fittings, stunning bathroom fixtures and efficient lighting are all part of the flawless Sidra experience. It’s the home you wouldn’t want to leave.
+ Children&amp;#39;s Play Area
+ Golf Course
+ Retail Facilities
+ Swimming Pool
+ Company name: Provident Real Estate
+ RERA ORN: 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Portal-AT-378928</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6531910545</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14654955.html</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sidra Villas I</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>5659</t>
+        </is>
+      </c>
+      <c r="N67" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Full renovated | Luxury 4BR + M | Extended | Pool</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>7</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>Salomatsho Mukairshoev</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>Aeon &amp; Trisl Real Estate Brokers</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>Aeon &amp;amp; Trisl Real Estate LLC proudly offers this luxury and stunning 4 bedroom + Maids room Villa in Sidra 1 Villas located in the prestigious community of Dubai Hills Estate.
 GENUINE PHOTOS
@@ -7694,92 +7824,92 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>REAP-3006</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>6531968155</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14602169.html</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="H68" t="n">
         <v>16500000</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I68" t="n">
         <v>4</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M67" s="5" t="inlineStr">
+      <c r="M68" s="3" t="inlineStr">
         <is>
           <t>5749</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N68" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>Private Pool | Prime Location | Luxury</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>2025-06-26</t>
         </is>
       </c>
-      <c r="Q67" t="n">
-        <v>13</v>
-      </c>
-      <c r="R67" t="inlineStr">
+      <c r="Q68" t="n">
+        <v>14</v>
+      </c>
+      <c r="R68" t="inlineStr">
         <is>
           <t>Wassim Ballouli</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>REAPLUXE</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>Reapluxe Real Estate L.L.C. proudly presents this stunning villa in the highly sought-after Sidra community of Dubai Hills Estate.
 Property Highlights:
@@ -7806,97 +7936,97 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>RL-122031</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>6543951915</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14207319.html</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="H69" t="n">
         <v>10950000</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I69" t="n">
         <v>4</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M68" s="5" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
+      <c r="M69" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N69" s="4" t="inlineStr">
         <is>
           <t>4900</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>Extended E3 | Single row | Good location</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>2025-05-08</t>
         </is>
       </c>
-      <c r="Q68" t="n">
-        <v>62</v>
-      </c>
-      <c r="R68" t="inlineStr">
+      <c r="Q69" t="n">
+        <v>63</v>
+      </c>
+      <c r="R69" t="inlineStr">
         <is>
           <t>Masood Kohistani</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>Max from White and Co Real Estate is delighted to bring to the market this stunning 4 Bedroom villa in SIDRA 2 - Dubai Hills Estate.
 Property Details:
@@ -7917,97 +8047,97 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>RL-89873</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>6531910553</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13108960.html</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="H70" t="n">
         <v>13800000</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I70" t="n">
         <v>5</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M69" s="4" t="inlineStr">
+      <c r="M70" s="5" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N70" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>Vacant on Transfer | Greenbelt | Call Rey</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
-      <c r="Q69" t="n">
-        <v>203</v>
-      </c>
-      <c r="R69" t="inlineStr">
+      <c r="Q70" t="n">
+        <v>204</v>
+      </c>
+      <c r="R70" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>Rey at White and Co Real Estate is proud to present this brand new 5 Bedroom + Maids Room Villa, within the highly sought-after Dubai Hills community.
 This villa:
@@ -8033,97 +8163,97 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>RL457</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>6544032296</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14313865.html</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="H71" t="n">
         <v>15850000</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I71" t="n">
         <v>5</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M70" s="5" t="inlineStr">
-        <is>
-          <t>6119</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
+      <c r="M71" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>Luxury Furnished | Vibrant Community | Private Pool</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>2025-05-20</t>
         </is>
       </c>
-      <c r="Q70" t="n">
-        <v>50</v>
-      </c>
-      <c r="R70" t="inlineStr">
+      <c r="Q71" t="n">
+        <v>51</v>
+      </c>
+      <c r="R71" t="inlineStr">
         <is>
           <t>Atif S. Jangda</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>WOW PROPERTIES</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>WOW Properties is proud to present this luxury villa in Sidra Villas II, Dubai Hills Estates
 Property Details:
@@ -8141,97 +8271,97 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>SIDRA_III_V_S_MURAD</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>65102648908</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14537941.html</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="H72" t="n">
         <v>7500000</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I72" t="n">
         <v>3</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M71" s="4" t="inlineStr">
+      <c r="M72" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N72" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>With Maid Room | Standalone Villa | Exclusive Unit</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="Q71" t="n">
-        <v>20</v>
-      </c>
-      <c r="R71" t="inlineStr">
+      <c r="Q72" t="n">
+        <v>21</v>
+      </c>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Murad Raief Jened</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>Real Estate Masters</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t xml:space="preserve">R E M Real Estate Brokers are pleased to bring to you:
 Sidra 3 – Dubai Hills Estate - Standalone Villa for Sale
@@ -8261,97 +8391,97 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>SNNY-Sidra4BR</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>6529103235</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14198886.html</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="H73" t="n">
         <v>10200000</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I73" t="n">
         <v>4</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M72" s="5" t="inlineStr">
+      <c r="M73" s="5" t="inlineStr">
         <is>
           <t>3523</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N73" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Vacant / No Upgrades / Single Row / Furnished / E3</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="Q72" t="n">
-        <v>63</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="Q73" t="n">
+        <v>64</v>
+      </c>
+      <c r="R73" t="inlineStr">
         <is>
           <t>Sunny Adhiya</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>Dynasty Real Estate - Head Office</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t xml:space="preserve">II No Agents II
 II 1 Day Prior Notice required II
@@ -8382,97 +8512,97 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>SNNY-Sidra5Bed</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>6543830136</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14200661.html</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="H74" t="n">
         <v>14500000</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I74" t="n">
         <v>5</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M73" s="5" t="inlineStr">
-        <is>
-          <t>4283</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
+      <c r="M74" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N74" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>Vacant Soon / Single Row / E5 / No Upgrades / 5BR</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
       </c>
-      <c r="Q73" t="n">
-        <v>63</v>
-      </c>
-      <c r="R73" t="inlineStr">
+      <c r="Q74" t="n">
+        <v>64</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>Sunny Adhiya</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>Dynasty Real Estate - Head Office</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>II No Agents II
 II 1 Day Prior Notice required II
@@ -8502,123 +8632,6 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>SP-S-5867</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>65102643812</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14468995.html</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>11999999</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Type E3</t>
-        </is>
-      </c>
-      <c r="M74" s="4" t="inlineStr">
-        <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>4901</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Furnished | Near to Park | Single Row | Type E3</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>2025-06-11</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
-        <v>28</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Ali Zafar</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Springfield Real Estate</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>Spring Field Real Estate offers you Fully Furnished 4 Bedroom Villa for sale located in Sidra Villas 3.
-Property Features:
-	•	4 Bedrooms + Maids Room
-	•	4 Bathrooms
-	•	Type E3 Layout
-	•	Plot Size: 4,901.67 sq.ft
-	•	Modern open-plan kitchen
-	•	Floor-to-ceiling windows for natural light
-	•	Landscaped garden
-	•	Covered parking for 2 cars
-Community Highlights:
-	•	Gated community with 24/7 security
-	•	Walking distance to Dubai Hills Park
-	•	Minutes from Dubai Hills Mall
-	•	Access to top-rated schools and healthcare facilities
-	•	Community pool, gym, and kids’ play areas
-About the Community:
-Experience luxury living in the heart of Dubai Hills Estate with this beautifully maintained 4-bedroom Sidra Villa in the highly sought-after Sidra 3 community. Offering a perfect blend of modern architecture and family-friendly design, this home is ideal for those who value space, comfort, and location. This villa is perfect for families looking for a serene yet connected lifestyle, with easy access to Al Khail Road and Downtown Dubai.
-Springfield Real Estate provides a diverse range of properties for both sale and rent from Apartments, Villas, Townhouses and Plots.
-For more information, you may contact our specialist ( Ali Zafar) for more information.
-SPRING FIELD REAL ESTATE
-RERA ORN: 11929</t>
-        </is>
-      </c>
-    </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
@@ -8666,16 +8679,16 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="M75" s="5" t="inlineStr">
-        <is>
-          <t>3757</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
+      <c r="M75" s="3" t="inlineStr">
         <is>
           <t>5988</t>
         </is>
       </c>
+      <c r="N75" s="4" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
           <t>Greenbelt | Large Plot | Corner Unit</t>
@@ -8687,7 +8700,7 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -8771,10 +8784,10 @@
       </c>
       <c r="M76" s="5" t="inlineStr">
         <is>
-          <t>3117</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
         <is>
           <t>4756</t>
         </is>
@@ -8790,7 +8803,7 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -8890,7 +8903,7 @@
           <t>4283</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N77" s="4" t="inlineStr">
         <is>
           <t>6400</t>
         </is>
@@ -8906,7 +8919,7 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -9011,10 +9024,10 @@
       </c>
       <c r="M78" s="5" t="inlineStr">
         <is>
-          <t>4000</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="N78" s="4" t="inlineStr">
         <is>
           <t>5140</t>
         </is>
@@ -9030,7 +9043,7 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -9116,7 +9129,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>16800000</v>
+        <v>16500000</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -9133,10 +9146,10 @@
       </c>
       <c r="M79" s="5" t="inlineStr">
         <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N79" s="4" t="inlineStr">
         <is>
           <t>6176</t>
         </is>
@@ -9152,7 +9165,7 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -9252,7 +9265,7 @@
           <t>5330</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N80" s="4" t="inlineStr">
         <is>
           <t>5330</t>
         </is>
@@ -9268,7 +9281,7 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -9351,12 +9364,12 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="M81" s="5" t="inlineStr">
+      <c r="M81" s="3" t="inlineStr">
         <is>
           <t>5653</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N81" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9372,7 +9385,7 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -9462,12 +9475,12 @@
           <t>Type E2</t>
         </is>
       </c>
-      <c r="M82" s="4" t="inlineStr">
+      <c r="M82" s="5" t="inlineStr">
         <is>
           <t>3237</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N82" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -9483,7 +9496,7 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -9561,12 +9574,12 @@
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M83" s="4" t="inlineStr">
+      <c r="M83" s="5" t="inlineStr">
         <is>
           <t>4283</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N83" s="4" t="inlineStr">
         <is>
           <t>6900</t>
         </is>
@@ -9582,7 +9595,7 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -9671,12 +9684,12 @@
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M84" s="4" t="inlineStr">
+      <c r="M84" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N84" s="4" t="inlineStr">
         <is>
           <t>4900</t>
         </is>
@@ -9692,7 +9705,7 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -9780,12 +9793,12 @@
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M85" s="4" t="inlineStr">
+      <c r="M85" s="5" t="inlineStr">
         <is>
           <t>3533</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N85" s="4" t="inlineStr">
         <is>
           <t>4850</t>
         </is>
@@ -9801,7 +9814,7 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -9889,10 +9902,10 @@
       </c>
       <c r="M86" s="5" t="inlineStr">
         <is>
-          <t>3350</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N86" s="4" t="inlineStr">
         <is>
           <t>4805</t>
         </is>
@@ -9908,7 +9921,7 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -9996,12 +10009,12 @@
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M87" s="4" t="inlineStr">
+      <c r="M87" s="5" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N87" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -10017,7 +10030,7 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -10055,17 +10068,17 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>VI7613-3</t>
+          <t>VI7629</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>65102648708</t>
+          <t>65102643812</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14665340.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14369607.html</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -10089,7 +10102,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>9500000</v>
+        <v>11950000</v>
       </c>
       <c r="I88" t="n">
         <v>4</v>
@@ -10106,35 +10119,35 @@
       </c>
       <c r="M88" s="5" t="inlineStr">
         <is>
-          <t>3700</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N88" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Exclusive | Single Row | Vacant Soon</t>
+          <t>Family Haven | Stunning | Maids Room</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Waleed Mirza</t>
+          <t>Wassim Attieh</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Irwin Real Estate L.L.C</t>
+          <t>Luxbridge International Realty</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -10143,113 +10156,6 @@
         </is>
       </c>
       <c r="U88" t="inlineStr">
-        <is>
-          <t>Irwin Real Estate are very pleased to present this stunning property in the highly sought after Sidra community within Dubai Hills Estate.
-Lovely upgraded with modern design 4 Bedroom Villa is located in Sidra Villas III. Ground floor living room extended with glass ceiling on the roof, second floor master bedroom balcony is enclosed to a study room.
-Unit Details:
-* VOT 
-* Standalone Villa
-* View: Community
-* Kitchen: Open and Fully Fitted
-* Bathrooms: 4
-* No. of Parking: 2
-* Built up Area: 3,700 square feet
-* Furnished: No
-This property boasts an open plan living kitchen area which provides an exceptional space for entertaining guests or spending time with family. This property also consists of 4 Bedrooms, 4 Bathrooms, Maids room, Lots of storage space and a family area at the top of the stairs which could be used for multiple purposes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>VI7629</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>65102643812</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14369607.html</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>11950000</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Type E3</t>
-        </is>
-      </c>
-      <c r="M89" s="5" t="inlineStr">
-        <is>
-          <t>4901</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Family Haven | Stunning | Maids Room</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>43</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Wassim Attieh</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Luxbridge International Realty</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
         <is>
           <t>Luxbridge International realty wants you to discover an exquisite 4-bedroom villa in the coveted Sidra Villas III, nestled within the prestigious Dubai Hills Estate. This spacious home spans 4,901.67 sq. ft. and combines luxury and comfort, making it an ideal retreat for families.
 Key Highlights:
@@ -10265,97 +10171,97 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>VI7738</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>6544014190</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14576481.html</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="H89" t="n">
         <v>8200000</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M90" s="5" t="inlineStr">
+      <c r="M89" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="N89" s="4" t="inlineStr">
         <is>
           <t>4417</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>Exclusive I Prime Location I Vacant Soon</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="Q90" t="n">
-        <v>15</v>
-      </c>
-      <c r="R90" t="inlineStr">
+      <c r="Q89" t="n">
+        <v>16</v>
+      </c>
+      <c r="R89" t="inlineStr">
         <is>
           <t>Luqman Akhtar</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>Irwin Real Estate L.L.C</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U90" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>Introducing a beautifully positioned 3 bedroom villa with maid’s room in the sought after Sidra 2 community of Dubai Hills Estate, set on a generous 4,417 sq. ft plot.
 Key Highlights:
@@ -10371,97 +10277,97 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>VI7750</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>6527973659</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14622802.html</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H91" t="n">
+      <c r="H90" t="n">
         <v>7500000</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I90" t="n">
         <v>3</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M91" s="5" t="inlineStr">
+      <c r="M90" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="N90" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>Well Priced | Great Location | Vacant Soon</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>2025-06-30</t>
         </is>
       </c>
-      <c r="Q91" t="n">
-        <v>9</v>
-      </c>
-      <c r="R91" t="inlineStr">
+      <c r="Q90" t="n">
+        <v>10</v>
+      </c>
+      <c r="R90" t="inlineStr">
         <is>
           <t>Luqman Akhtar</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>Irwin Real Estate L.L.C</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U91" t="inlineStr">
+      <c r="U90" t="inlineStr">
         <is>
           <t>Presenting this 3-bedroom villa in the sought-after Sidra Villas, nestled within the prestigious Dubai Hills Estate. This beautifully designed residence features an expansive layout, ensuring luxury living with comfort at its core. 
 Key Highlights:
@@ -10476,97 +10382,97 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>VI8947-1</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>6544023767</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14676476.html</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H92" t="n">
+      <c r="H91" t="n">
         <v>14000000</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I91" t="n">
         <v>5</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M92" s="4" t="inlineStr">
+      <c r="M91" s="5" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="N91" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Community Expert | Type E5 | True Corner Plot</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>2025-07-05</t>
         </is>
       </c>
-      <c r="Q92" t="n">
-        <v>4</v>
-      </c>
-      <c r="R92" t="inlineStr">
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
           <t>Ahlam Dourhi</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>Jade &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr">
+      <c r="U91" t="inlineStr">
         <is>
           <t>Jade &amp;amp; Co Real Estate is delighted to present this priced to sell 5-bedroom villa with a maid&amp;#39;s room in the charming community of Sidra, Dubai Hills. This property presents an excellent opportunity for renovation. Positioned as a corner unit, it boasts ultimate privacy and views of the green belt.
 - 5 Bedrooms+Maid
@@ -10588,97 +10494,320 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>VI8948-1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6531968111</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14676478.html</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sidra Villas I</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Type E3</t>
+        </is>
+      </c>
+      <c r="M92" s="5" t="inlineStr">
+        <is>
+          <t>3523</t>
+        </is>
+      </c>
+      <c r="N92" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Community Expert | Turn-Key | Rare Property</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Ahlam Dourhi</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Jade &amp; Co Real Estate</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Jade &amp;amp; Co is delighted to present a unique opportunity in the charming community of Sidra. This one-of-a-kind villa is a fully upgraded 4-bedroom + maid&amp;#39;s residence, boasting luxurious finishes throughout .
+- 4 Bedrooms+  Maid
+- Green Belt
+- Fully Upgraded
+- Private Pool
+- Voice Controlled System (Alexa)
+- Extended
+- Luxurious Finishing&amp;#39;s
+- German Kitchen Appliances
+- Furnished with Custom-Made Furniture
+- Close to Amenities
+- Pantry Kitchen
+For queries or offers on the property, please contact our Sidra Specialist Ahlam (BRN 53959).
+Presenting the most exceptional Type E3 villa on the market, featuring extensive upgrades and premium finishes and custom-made luxurious furniture. This stunning residence showcases a complete overhaul, including new flooring throughout. The kitchen has been transformed with top-notch German appliances, while the outdoor space is a true oasis, featuring a 12 sqft infinity pool, jacuzzi, and enchanting night lights. The maid&amp;#39;s room has been enlarged with a pantry kitchen. The living room offers an extended courtyard, enhanced by a skylight. This property is a must-see.
+Sidra is Dubai’s most vibrant and premium new community. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports. 
+Jade &amp;amp; Co was founded to provide a boutique approach to the Dubai Real Estate market, which caters way beyond beautiful properties, as our exceptional agents source a lifestyle to compliment you. Our purpose is to provide an unrivaled service in the market, whether you are buying, selling, or renting, and our approach allows us to walk alongside our clients at every stage of their journey. For Jade &amp;amp; Co, maintaining long-lasting relationships is at the core of our agency.
+Jade &amp;amp; Co Real Estate
+Office: 610 The Onyx Tower 1, The Greens, Dubai, UAE</t>
+        </is>
+      </c>
+    </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
+          <t>VI9014</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>65102649334</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14692403.html</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sidra Villas</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sidra Villas III</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Type E3</t>
+        </is>
+      </c>
+      <c r="M93" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N93" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Community Expert | Best Location | Vacant</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Ahlam Dourhi</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Jade &amp; Co Real Estate</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Jade &amp;amp; Co Real Estate is thrilled to present this beautifully located property on the green belt, now vacant and ready for immediate move-in.
+- 4 Bedrooms plus Maid
+- Type E3
+- Green Belt Backing
+- Vacant 
+- Viewable
+- Fantastic Location
+- Corner Unit
+- Immaculate Condition
+- Desired Location
+- Motivated Seller
+Sidra is Dubai’s most vibrant and premium new community. Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. The destination has an endless supply of nature trails and green spaces so you can live life in harmony with nature and world-class residential, hospitality and retail districts. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports. 
+Jade &amp;amp; Co was founded to provide a boutique approach to the Dubai Real Estate market, which caters way beyond beautiful properties, as our exceptional agents source a lifestyle to compliment you. Our purpose is to provide an unrivaled service in the market, whether you are buying, selling, or renting, and our approach allows us to walk alongside our clients at every stage of their journey. For Jade &amp;amp; Co, maintaining long-lasting relationships is at the core of our agency.
+Jade &amp;amp; Co Real Estate
+Office: 610 The Onyx Tower 1, The Greens, Dubai, UAE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
           <t>VI9016-2</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>65102648956</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14588191.html</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H93" t="n">
+      <c r="H94" t="n">
         <v>8000000</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M93" s="5" t="inlineStr">
-        <is>
-          <t>3345</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
+      <c r="M94" s="5" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N94" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>RENTED  |   BACK TO BACK | CLOSE TO POOL</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="Q93" t="n">
-        <v>14</v>
-      </c>
-      <c r="R93" t="inlineStr">
+      <c r="Q94" t="n">
+        <v>15</v>
+      </c>
+      <c r="R94" t="inlineStr">
         <is>
           <t>Victoria Burca</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr">
+      <c r="U94" t="inlineStr">
         <is>
           <t>Presenting an exquisite 3-bedroom villa in the sought-after Sidra Villas III within the prestigious Dubai Hills Estate. This stunning residence boasts a generous built-up area of 3,345 sq.ft and offers a perfect blend of luxury and comfort, ideal for families and discerning buyers alike.
 Key Highlights:
@@ -10693,97 +10822,97 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>VTJ53</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>6531910521</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14538171.html</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H94" t="n">
+      <c r="H95" t="n">
         <v>9000000</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I95" t="n">
         <v>4</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Type E2</t>
         </is>
       </c>
-      <c r="M94" s="5" t="inlineStr">
+      <c r="M95" s="5" t="inlineStr">
         <is>
           <t>3237</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="N95" s="4" t="inlineStr">
         <is>
           <t>4787</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>Large Plot | 4 Bed | Investment Deal</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>2025-06-19</t>
         </is>
       </c>
-      <c r="Q94" t="n">
-        <v>20</v>
-      </c>
-      <c r="R94" t="inlineStr">
+      <c r="Q95" t="n">
+        <v>21</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>Vikesh Desai</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>Canary Island Properties</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U94" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>Canary Island Properties is proud to present this stunning 4-Bedroom villa in Sidra Villas, Dubai Hills Estate. 
 - 4 Bedroom
@@ -10799,97 +10928,97 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>axc-3988896-r1</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>6543957002</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14093156.html</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H95" t="n">
+      <c r="H96" t="n">
         <v>11000000</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I96" t="n">
         <v>4</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Type E3</t>
         </is>
       </c>
-      <c r="M95" s="5" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
+      <c r="M96" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N96" s="4" t="inlineStr">
         <is>
           <t>5326</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Corner | Spacious Plot | Ready to move in | Modern</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="Q95" t="n">
-        <v>75</v>
-      </c>
-      <c r="R95" t="inlineStr">
+      <c r="Q96" t="n">
+        <v>76</v>
+      </c>
+      <c r="R96" t="inlineStr">
         <is>
           <t>George Nakrour</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>AX CAPITAL Real Estate</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>AX CAPITAL Real Estate is offering to the market this venture from the world-leading developer Emaar; Dubai Hills Sidra Villas 2. 
 This community is the definition of contemporary living with a sense of community; all your needs are around with only a short drive to malls, educational entities, and sports clubs.
@@ -10914,97 +11043,97 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>fastway-8354868</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>6544014254</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-11438547.html</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="H97" t="n">
         <v>20000000</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I97" t="n">
         <v>5</v>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M96" s="5" t="inlineStr">
-        <is>
-          <t>4283</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
+      <c r="M97" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N97" s="4" t="inlineStr">
         <is>
           <t>5755</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>Exclusive | Upgraded | Park view E5 | Single Row</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="Q96" t="n">
-        <v>442</v>
-      </c>
-      <c r="R96" t="inlineStr">
+      <c r="Q97" t="n">
+        <v>443</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Leo Liu</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>Fast Way Real Estate Broker</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr">
+      <c r="U97" t="inlineStr">
         <is>
           <t>Fastway Real Estate is pleased to bring to the market this Exclusive listing a very in-demand 5-bedroom E5 villa, situated within Sidra 2 in a great location sitting on an elevated plot this villa is a must-see with a nice mature garden, dinning and upgraded kitchen, floor to ceiling windows the villa is flooded with lots of natural light and is a really enjoyable space. with the master being spacious with a walk-in wardrobe and balcony overlooking the greenery.
 -Type 5
@@ -11022,92 +11151,92 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>laforet-360</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>6528039892</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-13726568.html</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="H98" t="n">
         <v>14000000</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I98" t="n">
         <v>5</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M97" s="5" t="inlineStr">
+      <c r="M98" s="3" t="inlineStr">
         <is>
           <t>3742</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="N98" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>Fully Upgraded + Pool I Big Plot Size I Park View</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
-      <c r="Q97" t="n">
-        <v>123</v>
-      </c>
-      <c r="R97" t="inlineStr">
+      <c r="Q98" t="n">
+        <v>124</v>
+      </c>
+      <c r="R98" t="inlineStr">
         <is>
           <t>Reka Probst</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>LAFORET REAL ESTATE L.L.C</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr">
+      <c r="U98" t="inlineStr">
         <is>
           <t>Laforet Real Estate is delighted to offer this stunning 5-bedroom villa nestled in Sidra 1, Dubai Hills Estate—an exceptional opportunity to embrace luxury living. This fully upgraded home offers a private pool for exclusive relaxation and privacy, alongside 5 modern bathrooms and spacious living areas designed for comfort and elegance.
 Property Highlights:
@@ -11137,97 +11266,97 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>luxure-13834374</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>65102648813</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14188226.html</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H98" t="n">
+      <c r="H99" t="n">
         <v>15500000</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I99" t="n">
         <v>5</v>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M98" s="5" t="inlineStr">
-        <is>
-          <t>4902</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
+      <c r="M99" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N99" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Fullly Upgraded | Furnished | Private Pool</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>2025-05-06</t>
         </is>
       </c>
-      <c r="Q98" t="n">
-        <v>64</v>
-      </c>
-      <c r="R98" t="inlineStr">
+      <c r="Q99" t="n">
+        <v>65</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>Hibildas Haridas</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>THE LUXURY REAL ESTATE BROKER L.L.C</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr">
+      <c r="U99" t="inlineStr">
         <is>
           <t>The Luxury Real Estate is thrilled to present this fully upgraded, spacious, and elegantly furnished 4-bedroom villa with a serene community view in Sidra III, developed by Emaar Properties.
 Property Features:
@@ -11246,97 +11375,97 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>luxure-14050711</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>65102648282</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14664362.html</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H99" t="n">
+      <c r="H100" t="n">
         <v>15500000</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I100" t="n">
         <v>5</v>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M99" s="5" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
+      <c r="M100" s="5" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="N100" s="4" t="inlineStr">
         <is>
           <t>6011</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>Fully Upgraded | Furnished | Private Pool</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>2025-07-04</t>
         </is>
       </c>
-      <c r="Q99" t="n">
-        <v>5</v>
-      </c>
-      <c r="R99" t="inlineStr">
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="inlineStr">
         <is>
           <t>Keisha Convento</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>THE LUXURY REAL ESTATE BROKER L.L.C</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U99" t="inlineStr">
+      <c r="U100" t="inlineStr">
         <is>
           <t>The Luxury Real Estate is pleased to present this stunning 5 Bedroom E5-Type Villa which is very high standard and competitively priced.
 Property Features:
@@ -11353,97 +11482,97 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>nassira-propertie-12288954</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>65102649106</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-13283643.html</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Sidra Villas III</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H100" t="n">
+      <c r="H101" t="n">
         <v>9000000</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I101" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M100" s="4" t="inlineStr">
+      <c r="M101" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N101" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t xml:space="preserve">Spacious l Plus Maid l A Perfect Family Community </t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
-      <c r="Q100" t="n">
-        <v>177</v>
-      </c>
-      <c r="R100" t="inlineStr">
+      <c r="Q101" t="n">
+        <v>178</v>
+      </c>
+      <c r="R101" t="inlineStr">
         <is>
           <t>Nassira Sekkay</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>Nassira Realty Group</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="T101" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr">
+      <c r="U101" t="inlineStr">
         <is>
           <t xml:space="preserve">Nassira Properties is pleased to present this beautiful 3-bedroom villa in Sidra, Dubai Hills Estate.
 This spacious property features a naturally landscaped garden and a large plot, making it perfect for families. The villa is ideally located just a stone&amp;#39;s throw away from the pool, park, and entrance, offering convenient access to all amenities. The property is in immaculate condition, and viewings are highly recommended.
@@ -11458,97 +11587,97 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>nexus-3745</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>6544032318</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14575758.html</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H101" t="n">
+      <c r="H102" t="n">
         <v>18800000</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I102" t="n">
         <v>5</v>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Type E5</t>
         </is>
       </c>
-      <c r="M101" s="4" t="inlineStr">
+      <c r="M102" s="5" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="N102" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Private Pool | Park View | Fully Upgraded</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="Q101" t="n">
-        <v>15</v>
-      </c>
-      <c r="R101" t="inlineStr">
+      <c r="Q102" t="n">
+        <v>16</v>
+      </c>
+      <c r="R102" t="inlineStr">
         <is>
           <t>Vladyslav Mychevskyi</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="S102" t="inlineStr">
         <is>
           <t>Nexus Properties</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U101" t="inlineStr">
+      <c r="U102" t="inlineStr">
         <is>
           <t>Nexus Point Real Estate is excited to offer this beautifully upgraded villa in Sidra II, Dubai Hills Estate. With a private pool, park views, and a peaceful green belt right outside, it’s perfectly located just moments from all the community amenities and it’s ready for you to move in.
 Key Features: 
@@ -11577,97 +11706,97 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>oneportfoliore-13860659</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>6544322784</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14223053.html</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>Sidra Villas II</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H102" t="n">
+      <c r="H103" t="n">
         <v>7800000</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I103" t="n">
         <v>3</v>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M102" s="5" t="inlineStr">
+      <c r="M103" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="N103" s="4" t="inlineStr">
         <is>
           <t>4526</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>Luxurious| Back to Back | Landscaped Garden</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>2025-05-09</t>
         </is>
       </c>
-      <c r="Q102" t="n">
-        <v>61</v>
-      </c>
-      <c r="R102" t="inlineStr">
+      <c r="Q103" t="n">
+        <v>62</v>
+      </c>
+      <c r="R103" t="inlineStr">
         <is>
           <t>Loan Triquet</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>One Portfolio Real Estate</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U102" t="inlineStr">
+      <c r="U103" t="inlineStr">
         <is>
           <t>One Portfolio Real Estate LLC is proud to present this exceptional 3-bedroom villa with maid room , located in the highly sought-after Sidra II community of Dubai Hills Estate. This stunning residence exudes modern elegance and offers a lifestyle of luxury and convenience.
 Step into a world of sophistication and refinement, where every detail has been meticulously crafted to provide an unparalleled living experience.
@@ -11693,92 +11822,92 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>sidra1-Dubai-Hills-Estate</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>6528039898</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14383967.html</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Sidra Villas</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Sidra Villas I</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H103" t="n">
+      <c r="H104" t="n">
         <v>25000000</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I104" t="n">
         <v>7</v>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="M103" s="5" t="inlineStr">
-        <is>
-          <t>5100</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
+      <c r="M104" s="3" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="N104" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t xml:space="preserve">Exclusive 7 Bedrooms | Park View | Upgraded </t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>2025-05-29</t>
         </is>
       </c>
-      <c r="Q103" t="n">
-        <v>41</v>
-      </c>
-      <c r="R103" t="inlineStr">
+      <c r="Q104" t="n">
+        <v>42</v>
+      </c>
+      <c r="R104" t="inlineStr">
         <is>
           <t>Aamir Khan</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>BESTRONG REAL ESTATE BROKERAGE L.L.C</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U103" t="inlineStr">
+      <c r="U104" t="inlineStr">
         <is>
           <t xml:space="preserve">Experience true luxury living in this exceptionally upgraded 7-bedroom villa in the prestigious Sidra 1, Dubai Hills Estate. With a fully extended layout and elegant design, this home offers an ideal setting for comfort, privacy, and family living.
 Property Details:
@@ -11818,126 +11947,6 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>sisure-13062523-8b</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>65102648818</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14456651.html</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Sidra Villas</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sidra Villas III</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Type E1</t>
-        </is>
-      </c>
-      <c r="M104" s="5" t="inlineStr">
-        <is>
-          <t>3100</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Corner | Serious Seller | Vastu</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>2025-06-09</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>30</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Omar Zein</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>SISU REAL ESTATE L.L.C</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>Sisu Real Estate is delighted to present this modern 3 Bedrooms Villa at Sidra 3 - Dubai Hills Estate
-• Sidra 3 - Dubai Hills Estate
-• 3 Bedrooms
-• 4 Bathrooms
-• Corner
-• Serious Seller
-• Vastu
-• Maids Room
-• 2 Parking Spaces
-• Walk-in Closets
-• Balcony
-• Community Pool
-• Community Gym
-• Community Park
-• Kids Play Area
-• Size: 3100 Sqft 
-Sidra 3 is a premium residential community located within Dubai Hills Estate, offering a blend of modern villas and lush green surroundings. The community features spacious homes with contemporary designs, along with access to parks, walking trails, and top-notch amenities. Sidra 3 is ideal for families seeking a tranquil yet vibrant lifestyle in Dubai.
-Omar is a specialized real estate expert in Dubai with 5+ years of experience, specializing in Club Villas, Golf Grove, and Maple in Dubai Hills. He prioritizes referrals and building long-term relationships, ensuring your real estate needs are met with care and professionalism.
-At SISU Real Estate, we excel in matching buyers with their dream properties and aiding sellers in achieving success. Our agents focus on specific communities, ensuring tailored advice and up-to-date insights. At SISU, expertise, integrity, and client-centered service guide your Dubai real estate journey.
-Choose SISU, choose resilience, and turn your real estate dreams into reality!
-SISU Real Estate LLC.
-807 - Dusseldorf Business Point
-Al Barsha 1 - Dubai - UAE
-admin@sisudubai.com
-ORN: 37532</t>
-        </is>
-      </c>
-    </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
@@ -11992,10 +12001,10 @@
       </c>
       <c r="M105" s="5" t="inlineStr">
         <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N105" s="4" t="inlineStr">
         <is>
           <t>6228</t>
         </is>
@@ -12011,7 +12020,7 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -12121,12 +12130,12 @@
           <t>Type E1</t>
         </is>
       </c>
-      <c r="M106" s="4" t="inlineStr">
+      <c r="M106" s="5" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="N106" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -12142,7 +12151,7 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -12182,17 +12191,17 @@
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>PB-S-12574</t>
+          <t>BAA-S-4995</t>
         </is>
       </c>
       <c r="B107" s="7" t="inlineStr">
         <is>
-          <t>65102648327</t>
+          <t>6543830118</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14698558.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-ii-14546713.html</t>
         </is>
       </c>
       <c r="D107" s="7" t="inlineStr">
@@ -12207,16 +12216,16 @@
       </c>
       <c r="F107" s="7" t="inlineStr">
         <is>
-          <t>Sidra Villas III</t>
+          <t>Sidra Villas II</t>
         </is>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H107" s="7" t="n">
-        <v>21649000</v>
+        <v>16500000</v>
       </c>
       <c r="I107" s="7" t="n">
         <v>5</v>
@@ -12232,37 +12241,37 @@
         </is>
       </c>
       <c r="L107" s="7" t="inlineStr"/>
-      <c r="M107" s="4" t="inlineStr">
+      <c r="M107" s="5" t="inlineStr">
         <is>
           <t>4109</t>
         </is>
       </c>
-      <c r="N107" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="N107" s="4" t="inlineStr">
+        <is>
+          <t>6176</t>
         </is>
       </c>
       <c r="O107" s="7" t="inlineStr">
         <is>
-          <t>Fully Extended | Community Expert | Unique Upgrade</t>
+          <t>Vacant/Cash Owner/Extended/Upgraded/Pool/Furnished</t>
         </is>
       </c>
       <c r="P107" s="7" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="Q107" s="7" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R107" s="7" t="inlineStr">
         <is>
-          <t>Imad Najib</t>
+          <t>Ryo Wakabayashi</t>
         </is>
       </c>
       <c r="S107" s="7" t="inlineStr">
         <is>
-          <t>Arabian Estates</t>
+          <t>Bridges and Allies Real Estate Brokers</t>
         </is>
       </c>
       <c r="T107" s="7" t="inlineStr">
@@ -12272,43 +12281,24 @@
       </c>
       <c r="U107" s="7" t="inlineStr">
         <is>
-          <t>Arabian Estates proudly presents this extraordinary, luxurious 5-bedroom standalone villa by Emaar in Sidra 3, Dubai Hills.
-Experience the ultimate blend of luxury, comfort, and practicality in this beautifully renovated home. Its stunning floors, walls, and shelves, along with the open-concept living areas, make every detail a pleasure to behold. The custom-built pool and pergolas in front and back yards, complete with a sunken fire pit seating area next to the pool, are awe-inspiring. With extra outdoor roofing for shade, the private pool gets plenty of sunlight all day and into the afternoon?it&amp;#39;s the ultimate resort-style home and a dream come true. 
-Step into your personal oasis: 
-- 5 Bed
-- 7 Baths
-- Largest type 
-- Maids/Drivers&amp;#39; room
-- Private Pool 
-- 2 Pergolas
-- Sunken fire pit
-- Barbecue Area
-- Landscaped Garden
-- Park Backing/View
-- Parking Space
-- Vacant On Transfer 
-Dubai Hills Estate and Sidra provide easy access to Palm Jumeirah, Marina, Downtown, Dubai International Airport, and the new Al Maktoum Airport. The community offers essential amenities, including a large park, Dubai Hills Mall, highly desirable schools, two hospitals, entertainment options, multiple playgrounds, and the renowned Dubai Hills Golf Club for your leisure and recreational needs.
-For more information and viewing, please call:
-Imad Najib | Senior Dubai Hills Community Expert
-RERA BRN | 64447
-Arabian Estates is a real estate agency based in Dubai. With a team of experienced and service-minded agents ready to help clients buy, sell, and rent their properties.</t>
+          <t>&lt;p&gt;Nestled in the prestigious Dubai Hills Estate, this rare single-row villa is the epitome of refined living, offering a unique blend of luxury, privacy, and tranquility. Set on a 6,176.76 sqft plot with an expanded BUA of 4,558 sqft, the home is thoughtfully designed with premium finishes and an effortless indoor-outdoor flow.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Key Features:&lt;br/&gt; • Zen-inspired interiors promoting calm and comfort&lt;br/&gt; • Fully fitted modern kitchen with high-end appliances&lt;br/&gt; • Spacious living and dining areas, perfect for entertaining&lt;br/&gt; • Temperature-controlled private pool for year-round enjoyment&lt;br/&gt; • Outdoor lounge and landscaped garden ideal for social gatherings&lt;br/&gt; • Two private parking spots with additional guest parking&lt;br/&gt; • Single row with direct backside access to a walkway leading to the park&lt;br/&gt; • Service charge: 2.5-3.5 AED/- sqft, reflecting premium amenities and location&lt;/p&gt;&lt;br&gt;&lt;p&gt;Open House:&lt;br/&gt; • Mondays: 13:00–15:00&lt;br/&gt; • Thursdays: 10:00–12:00&lt;/p&gt;&lt;br&gt;&lt;p&gt;Experience unmatched serenity and elegance in one of Dubai’s most exclusive communities.&lt;/p&gt;&lt;br&gt;</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>PS-0407252</t>
+          <t>MDXBSIIIDHE</t>
         </is>
       </c>
       <c r="B108" s="7" t="inlineStr">
         <is>
-          <t>6527985601</t>
+          <t>65102643812</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14669039.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14708936.html</t>
         </is>
       </c>
       <c r="D108" s="7" t="inlineStr">
@@ -12323,19 +12313,19 @@
       </c>
       <c r="F108" s="7" t="inlineStr">
         <is>
-          <t>Sidra Villas I</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H108" s="7" t="n">
-        <v>14150000</v>
+        <v>11500000</v>
       </c>
       <c r="I108" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J108" s="7" t="inlineStr">
         <is>
@@ -12344,41 +12334,41 @@
       </c>
       <c r="K108" s="7" t="inlineStr">
         <is>
-          <t>Type E4</t>
+          <t>Type E3</t>
         </is>
       </c>
       <c r="L108" s="7" t="inlineStr"/>
       <c r="M108" s="5" t="inlineStr">
         <is>
-          <t>3741</t>
-        </is>
-      </c>
-      <c r="N108" s="8" t="inlineStr">
-        <is>
-          <t>5233</t>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N108" s="4" t="inlineStr">
+        <is>
+          <t>4901</t>
         </is>
       </c>
       <c r="O108" s="7" t="inlineStr">
         <is>
-          <t>Unique | Green Belt | Upgraded</t>
+          <t>Type E3 | Immaculate Condition | Single Row</t>
         </is>
       </c>
       <c r="P108" s="7" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="Q108" s="7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R108" s="7" t="inlineStr">
         <is>
-          <t>Anastasiia Sarnavska</t>
+          <t>Joshua Aubrey Lytton</t>
         </is>
       </c>
       <c r="S108" s="7" t="inlineStr">
         <is>
-          <t>Provident Real Estate</t>
+          <t>MONDAY REAL ESTATE L.L.C</t>
         </is>
       </c>
       <c r="T108" s="7" t="inlineStr">
@@ -12388,43 +12378,36 @@
       </c>
       <c r="U108" s="7" t="inlineStr">
         <is>
-          <t>The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports. Everything you could need and want for the best lifestyle is within the community. This is where convenience meets you at the comfort of your home.
- Plot Area: 5,233 sq. ft
- BUA: 3,741 soft
- 5 Bed + Maids
- 5 Bathrooms
- 2 Covered Parking 
- Fully Furnished by Italian Brand
- VOT
- Private Location
- Private Pool
- Type E4
- Upgraded
- Dubai Hills Estate is strategically positioned on Al Khail Road and southeast of Downtown Dubai, making it an ideal haven for a relaxed and safe family life. The destination has an endless supply of nature trails and green spaces, so you can live life in harmony with nature and world-class residential, hospitality and retail districts. This is where life truly is extraordinary.
- Immerse yourself in the things you love the most in a home planned to the very last detail. The collection of villas at Sidra are equipped with all the modern amenities you’d imagine a private paradise to have; gorgeous kitchen fittings, stunning bathroom fixtures and efficient lighting are all part of the flawless Sidra experience. It’s the home you wouldn’t want to leave.
- Children&amp;#39;s Play Area
- Golf Course
- Retail Facilities
- Swimming Pool
- Company name: Provident Real Estate
- RERA ORN: 1933</t>
+          <t>Monday Real Estate is proud to present this beautifully maintained Type E3 villa in the sought-after Sidra Villas III, Dubai Hills Estate. Set on an expansive 4,901 sq. ft. plot, this 4-bedroom villa offers 3,953 sq. ft. of spacious, modern living in immaculate condition.
+The home features a bright and airy open-plan layout, high-quality finishes, and generously sized bedrooms - each with built-in wardrobes and en-suite bathrooms. The landscaped garden provides an ideal space for outdoor living and entertaining.
+Located within one of Dubai’s most prestigious master communities, residents benefit from lush parks, walking trails, top-tier schools, and proximity to Dubai Hills Mall and the golf course.
+Key Features:
+- 4 Bedrooms
+- Maid’s Room
+- 5 Bathrooms
+- Type E3 Layout
+- Immaculately Maintained
+- Large Plot: 4,901 sq. ft.
+- Built-Up Area: 3,953 sq. ft.
+- Family-Friendly Community
+This villa is perfect for families seeking a high-quality lifestyle in a well-connected and vibrant neighbourhood.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>VI8948-1</t>
+          <t>SP-S-5945</t>
         </is>
       </c>
       <c r="B109" s="7" t="inlineStr">
         <is>
-          <t>6531968111</t>
+          <t>65102643812</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-i-14676478.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14701667.html</t>
         </is>
       </c>
       <c r="D109" s="7" t="inlineStr">
@@ -12439,16 +12422,16 @@
       </c>
       <c r="F109" s="7" t="inlineStr">
         <is>
-          <t>Sidra Villas I</t>
+          <t>Sidra Villas III</t>
         </is>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H109" s="7" t="n">
-        <v>16500000</v>
+        <v>11499999</v>
       </c>
       <c r="I109" s="7" t="n">
         <v>4</v>
@@ -12464,37 +12447,37 @@
         </is>
       </c>
       <c r="L109" s="7" t="inlineStr"/>
-      <c r="M109" s="4" t="inlineStr">
-        <is>
-          <t>3523</t>
-        </is>
-      </c>
-      <c r="N109" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
+      <c r="M109" s="5" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="N109" s="4" t="inlineStr">
+        <is>
+          <t>4901</t>
         </is>
       </c>
       <c r="O109" s="7" t="inlineStr">
         <is>
-          <t>Community Expert | Turn-Key | Rare Property</t>
+          <t>Furnished | Near to Park | Single Row | Type E3</t>
         </is>
       </c>
       <c r="P109" s="7" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="Q109" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R109" s="7" t="inlineStr">
         <is>
-          <t>Ahlam Dourhi</t>
+          <t>Ali Zafar</t>
         </is>
       </c>
       <c r="S109" s="7" t="inlineStr">
         <is>
-          <t>Jade &amp; Co Real Estate</t>
+          <t>Springfield Real Estate</t>
         </is>
       </c>
       <c r="T109" s="7" t="inlineStr">
@@ -12504,41 +12487,45 @@
       </c>
       <c r="U109" s="7" t="inlineStr">
         <is>
-          <t>Jade &amp;amp; Co is delighted to present a unique opportunity in the charming community of Sidra. This one-of-a-kind villa is a fully upgraded 4-bedroom + maid&amp;#39;s residence, boasting luxurious finishes throughout .
-- 4 Bedrooms+  Maid
-- Green Belt
-- Fully Upgraded
-- Private Pool
-- Voice Controlled System (Alexa)
-- Extended
-- Luxurious Finishing&amp;#39;s
-- German Kitchen Appliances
-- Furnished with Custom-Made Furniture
-- Close to Amenities
-- Pantry Kitchen
-For queries or offers on the property, please contact our Sidra Specialist Ahlam (BRN 53959).
-Presenting the most exceptional Type E3 villa on the market, featuring extensive upgrades and premium finishes and custom-made luxurious furniture. This stunning residence showcases a complete overhaul, including new flooring throughout. The kitchen has been transformed with top-notch German appliances, while the outdoor space is a true oasis, featuring a 12 sqft infinity pool, jacuzzi, and enchanting night lights. The maid&amp;#39;s room has been enlarged with a pantry kitchen. The living room offers an extended courtyard, enhanced by a skylight. This property is a must-see.
-Sidra is Dubai’s most vibrant and premium new community. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports. 
-Jade &amp;amp; Co was founded to provide a boutique approach to the Dubai Real Estate market, which caters way beyond beautiful properties, as our exceptional agents source a lifestyle to compliment you. Our purpose is to provide an unrivaled service in the market, whether you are buying, selling, or renting, and our approach allows us to walk alongside our clients at every stage of their journey. For Jade &amp;amp; Co, maintaining long-lasting relationships is at the core of our agency.
-Jade &amp;amp; Co Real Estate
-Office: 610 The Onyx Tower 1, The Greens, Dubai, UAE</t>
+          <t>Spring Field Real Estate offers you Fully Furnished 4 Bedroom Villa for sale located in Sidra Villas 3.
+Property Features:
+	•	4 Bedrooms + Maids Room
+	•	4 Bathrooms
+	•	Type E3 Layout
+	•	Plot Size: 4,901.67 sq.ft
+	•	Modern open-plan kitchen
+	•	Floor-to-ceiling windows for natural light
+	•	Landscaped garden
+	•	Covered parking for 2 cars
+Community Highlights:
+	•	Gated community with 24/7 security
+	•	Walking distance to Dubai Hills Park
+	•	Minutes from Dubai Hills Mall
+	•	Access to top-rated schools and healthcare facilities
+	•	Community pool, gym, and kids’ play areas
+About the Community:
+Experience luxury living in the heart of Dubai Hills Estate with this beautifully maintained 4-bedroom Sidra Villa in the highly sought-after Sidra 3 community. Offering a perfect blend of modern architecture and family-friendly design, this home is ideal for those who value space, comfort, and location. This villa is perfect for families looking for a serene yet connected lifestyle, with easy access to Al Khail Road and Downtown Dubai.
+Springfield Real Estate provides a diverse range of properties for both sale and rent from Apartments, Villas, Townhouses and Plots.
+For more information, you may contact our specialist ( Ali Zafar) for more information.
+SPRING FIELD REAL ESTATE
+RERA ORN: 11929</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>VI9014</t>
+          <t>sisure-13062523-8c</t>
         </is>
       </c>
       <c r="B110" s="7" t="inlineStr">
         <is>
-          <t>65102649334</t>
+          <t>65102648818</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14692403.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-sidra-villas-sidra-villas-iii-14708222.html</t>
         </is>
       </c>
       <c r="D110" s="7" t="inlineStr">
@@ -12558,14 +12545,14 @@
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H110" s="7" t="n">
-        <v>12000000</v>
+        <v>8500000</v>
       </c>
       <c r="I110" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J110" s="7" t="inlineStr">
         <is>
@@ -12574,28 +12561,28 @@
       </c>
       <c r="K110" s="7" t="inlineStr">
         <is>
-          <t>Type E3</t>
+          <t>Type E1</t>
         </is>
       </c>
       <c r="L110" s="7" t="inlineStr"/>
-      <c r="M110" s="4" t="inlineStr">
-        <is>
-          <t>3533</t>
-        </is>
-      </c>
-      <c r="N110" s="8" t="inlineStr">
+      <c r="M110" s="5" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="N110" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
       <c r="O110" s="7" t="inlineStr">
         <is>
-          <t>Community Expert | Best Location | Vacant</t>
+          <t>Corner | Serious Seller | Vastu</t>
         </is>
       </c>
       <c r="P110" s="7" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="Q110" s="7" t="n">
@@ -12603,12 +12590,12 @@
       </c>
       <c r="R110" s="7" t="inlineStr">
         <is>
-          <t>Ahlam Dourhi</t>
+          <t>Omar Zein</t>
         </is>
       </c>
       <c r="S110" s="7" t="inlineStr">
         <is>
-          <t>Jade &amp; Co Real Estate</t>
+          <t>SISU REAL ESTATE L.L.C</t>
         </is>
       </c>
       <c r="T110" s="7" t="inlineStr">
@@ -12618,21 +12605,31 @@
       </c>
       <c r="U110" s="7" t="inlineStr">
         <is>
-          <t>Jade &amp;amp; Co Real Estate is thrilled to present this beautifully located property on the green belt, now vacant and ready for immediate move-in.
-- 4 Bedrooms plus Maid
-- Type E3
-- Green Belt Backing
-- Vacant 
-- Viewable
-- Fantastic Location
-- Corner Unit
-- Immaculate Condition
-- Desired Location
-- Motivated Seller
-Sidra is Dubai’s most vibrant and premium new community. Dubai Hills is strategically positioned on Al Khail Road and southeast of Downtown Dubai. The destination has an endless supply of nature trails and green spaces so you can live life in harmony with nature and world-class residential, hospitality and retail districts. The exquisite villas at Sidra are designed exclusively for those with a taste for contemporary living. The community is master-planned to connect you with some of the best choices in education, shopping, healthcare and sports. 
-Jade &amp;amp; Co was founded to provide a boutique approach to the Dubai Real Estate market, which caters way beyond beautiful properties, as our exceptional agents source a lifestyle to compliment you. Our purpose is to provide an unrivaled service in the market, whether you are buying, selling, or renting, and our approach allows us to walk alongside our clients at every stage of their journey. For Jade &amp;amp; Co, maintaining long-lasting relationships is at the core of our agency.
-Jade &amp;amp; Co Real Estate
-Office: 610 The Onyx Tower 1, The Greens, Dubai, UAE</t>
+          <t>Sisu Real Estate is delighted to present this modern 3 Bedrooms Villa at Sidra 3 - Dubai Hills Estate
+• Sidra 3 - Dubai Hills Estate
+• 3 Bedrooms
+• 4 Bathrooms
+• Corner
+• Serious Seller
+• Vastu
+• Maids Room
+• 2 Parking Spaces
+• Walk-in Closets
+• Balcony
+• Community Pool
+• Community Gym
+• Community Park
+• Kids Play Area
+• Size: 3100 Sqft
+Sidra 3 is a premium residential community located within Dubai Hills Estate, offering a blend of modern villas and lush green surroundings. The community features spacious homes with contemporary designs, along with access to parks, walking trails, and top-notch amenities. Sidra 3 is ideal for families seeking a tranquil yet vibrant lifestyle in Dubai.
+Omar is a specialized real estate expert in Dubai with 5+ years of experience, specializing in Club Villas, Golf Grove, and Maple in Dubai Hills. He prioritizes referrals and building long-term relationships, ensuring your real estate needs are met with care and professionalism.
+At SISU Real Estate, we excel in matching buyers with their dream properties and aiding sellers in achieving success. Our agents focus on specific communities, ensuring tailored advice and up-to-date insights. At SISU, expertise, integrity, and client-centered service guide your Dubai real estate journey.
+Choose SISU, choose resilience, and turn your real estate dreams into reality!
+SISU Real Estate LLC.
+807 - Dusseldorf Business Point
+Al Barsha 1 - Dubai - UAE
+admin@sisudubai.com
+ORN: 37532</t>
         </is>
       </c>
     </row>
